--- a/public/files/students.xlsx
+++ b/public/files/students.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="323">
   <si>
     <t>id</t>
   </si>
@@ -909,16 +909,107 @@
   </si>
   <si>
     <t>1C</t>
+  </si>
+  <si>
+    <t>birth_pin</t>
+  </si>
+  <si>
+    <t>6 Lw</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kayla</t>
+  </si>
+  <si>
+    <t>Arnaud</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nyeisha</t>
+  </si>
+  <si>
+    <t>Balewa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Makini</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jemiah</t>
+  </si>
+  <si>
+    <t>Cave</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ariel</t>
+  </si>
+  <si>
+    <t>Dubarry</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Johnathan</t>
+  </si>
+  <si>
+    <t>Edwards</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Danielle</t>
+  </si>
+  <si>
+    <t>Hosten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sanya</t>
+  </si>
+  <si>
+    <t>Lange</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andrea</t>
+  </si>
+  <si>
+    <t>Mclean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jakobe</t>
+  </si>
+  <si>
+    <t>Phipps</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jordan</t>
+  </si>
+  <si>
+    <t>Pope</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Solange</t>
+  </si>
+  <si>
+    <t>Reyes Mc Carthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kaylee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Isiah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -944,7 +1035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -959,6 +1050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1239,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="G159" sqref="G159:H172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,12 +1344,12 @@
     <col min="3" max="3" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,8 +1365,14 @@
       <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2021001</v>
       </c>
@@ -1291,7 +1389,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2021002</v>
       </c>
@@ -1308,7 +1406,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2021003</v>
       </c>
@@ -1325,7 +1423,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2021004</v>
       </c>
@@ -1342,7 +1440,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2021005</v>
       </c>
@@ -1359,7 +1457,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2021006</v>
       </c>
@@ -1376,7 +1474,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2021007</v>
       </c>
@@ -1393,7 +1491,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2021008</v>
       </c>
@@ -1410,7 +1508,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2021009</v>
       </c>
@@ -1427,7 +1525,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2021010</v>
       </c>
@@ -1444,7 +1542,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2021011</v>
       </c>
@@ -1461,7 +1559,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2021012</v>
       </c>
@@ -1478,7 +1576,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2021013</v>
       </c>
@@ -1495,7 +1593,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2021014</v>
       </c>
@@ -1512,7 +1610,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2021015</v>
       </c>
@@ -3451,7 +3549,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>2021144</v>
       </c>
@@ -3465,7 +3563,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>2021145</v>
       </c>
@@ -3479,7 +3577,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>2021146</v>
       </c>
@@ -3493,7 +3591,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>2021147</v>
       </c>
@@ -3507,7 +3605,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>2021148</v>
       </c>
@@ -3521,7 +3619,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>2021149</v>
       </c>
@@ -3535,7 +3633,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>2021150</v>
       </c>
@@ -3549,7 +3647,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>2021151</v>
       </c>
@@ -3563,7 +3661,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>2021152</v>
       </c>
@@ -3577,7 +3675,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>2021153</v>
       </c>
@@ -3591,7 +3689,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>2021154</v>
       </c>
@@ -3605,7 +3703,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>2021155</v>
       </c>
@@ -3619,7 +3717,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>2021156</v>
       </c>
@@ -3633,7 +3731,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>2021157</v>
       </c>
@@ -3645,6 +3743,244 @@
       </c>
       <c r="E158" s="3" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>2021601</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F159" s="6">
+        <v>2121146200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="5">
+        <v>2021602</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F160" s="4">
+        <v>9755489223</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="5">
+        <v>2021603</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F161" s="4">
+        <v>4056449863</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="5">
+        <v>2021604</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F162" s="4">
+        <v>7742328722</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="5">
+        <v>2021605</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F163" s="4">
+        <v>3738245311</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="5">
+        <v>2021606</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F164" s="4">
+        <v>5549338322</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="5">
+        <v>2021607</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F165" s="4">
+        <v>8043348482</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="5">
+        <v>2021608</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F166" s="4">
+        <v>9865529504</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="5">
+        <v>2021609</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F167" s="4">
+        <v>7361570564</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="5">
+        <v>2021610</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F168" s="4">
+        <v>7232217311</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="5">
+        <v>2021611</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F169" s="4">
+        <v>5739237111</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="5">
+        <v>2021612</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F170" s="4">
+        <v>5522156940</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="5">
+        <v>2021613</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F171" s="4">
+        <v>15604004725</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="5">
+        <v>2021614</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F172" s="4">
+        <v>8426144580</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/students.xlsx
+++ b/public/files/students.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="402">
   <si>
     <t>id</t>
   </si>
@@ -425,9 +425,6 @@
     <t>Kelly-Ann</t>
   </si>
   <si>
-    <t>Wison</t>
-  </si>
-  <si>
     <t>Yearwood</t>
   </si>
   <si>
@@ -993,12 +990,255 @@
   </si>
   <si>
     <t xml:space="preserve"> Isiah</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>0625180330</t>
+  </si>
+  <si>
+    <t>0464534084</t>
+  </si>
+  <si>
+    <t>0249382262</t>
+  </si>
+  <si>
+    <t>0955493733</t>
+  </si>
+  <si>
+    <t>0451443363</t>
+  </si>
+  <si>
+    <t>0243322192</t>
+  </si>
+  <si>
+    <t>0523140760</t>
+  </si>
+  <si>
+    <t>0163545154</t>
+  </si>
+  <si>
+    <t>0763515304</t>
+  </si>
+  <si>
+    <t>0031393331</t>
+  </si>
+  <si>
+    <t>0526171200</t>
+  </si>
+  <si>
+    <t>Williams Mathews</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>Z'Yria</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Jabbari</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikayah </t>
+  </si>
+  <si>
+    <t>Nicholls</t>
+  </si>
+  <si>
+    <t>Kianna</t>
+  </si>
+  <si>
+    <t>Meagan</t>
+  </si>
+  <si>
+    <t>Bacchus</t>
+  </si>
+  <si>
+    <t>Kamia</t>
+  </si>
+  <si>
+    <t>Grannum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condoleezza </t>
+  </si>
+  <si>
+    <t>Snaggs</t>
+  </si>
+  <si>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>Malachi</t>
+  </si>
+  <si>
+    <t>Precious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthews </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hassan </t>
+  </si>
+  <si>
+    <t>Phillip</t>
+  </si>
+  <si>
+    <t>Akim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salima </t>
+  </si>
+  <si>
+    <t>Duprey</t>
+  </si>
+  <si>
+    <t>Errycia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neshawn </t>
+  </si>
+  <si>
+    <t>Cassie</t>
+  </si>
+  <si>
+    <t>Kimora</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Keyanna</t>
+  </si>
+  <si>
+    <t>Renisha</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Kheranumaa</t>
+  </si>
+  <si>
+    <t>Boothman</t>
+  </si>
+  <si>
+    <t>Starr</t>
+  </si>
+  <si>
+    <t>Oteng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaniha </t>
+  </si>
+  <si>
+    <t>Richardson</t>
+  </si>
+  <si>
+    <t>Josanne</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>Treveell</t>
+  </si>
+  <si>
+    <t>Standford</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>Zaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richards </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shatoya </t>
+  </si>
+  <si>
+    <t>0429180220</t>
+  </si>
+  <si>
+    <t>0128101060</t>
+  </si>
+  <si>
+    <t>0520160130</t>
+  </si>
+  <si>
+    <t>0354404333</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>0055422793</t>
+  </si>
+  <si>
+    <t>0829140720</t>
+  </si>
+  <si>
+    <t>0464573454</t>
+  </si>
+  <si>
+    <t>0560515174</t>
+  </si>
+  <si>
+    <t>0768565714</t>
+  </si>
+  <si>
+    <t>0368525424</t>
+  </si>
+  <si>
+    <t>F000007264</t>
+  </si>
+  <si>
+    <t>0350483113</t>
+  </si>
+  <si>
+    <t>0623140020</t>
+  </si>
+  <si>
+    <t>0423189050</t>
+  </si>
+  <si>
+    <t>F000007185</t>
+  </si>
+  <si>
+    <t>0664583654</t>
+  </si>
+  <si>
+    <t>0530292201</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1035,7 +1275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1050,7 +1290,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1331,10 +1580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="G159" sqref="G159:H172"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H108" sqref="H108:M132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,9 +1594,14 @@
     <col min="3" max="3" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1365,11 +1620,11 @@
       <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>297</v>
+      <c r="F1" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1383,10 +1638,16 @@
         <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1421189560</v>
+      </c>
+      <c r="G2" s="8">
+        <v>39252</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1400,10 +1661,16 @@
         <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="F3" s="7">
+        <v>9824181060</v>
+      </c>
+      <c r="G3" s="8">
+        <v>39404</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1417,10 +1684,16 @@
         <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="F4" s="7">
+        <v>4563504524</v>
+      </c>
+      <c r="G4" s="8">
+        <v>39100</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1434,10 +1707,16 @@
         <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3469515894</v>
+      </c>
+      <c r="G5" s="8">
+        <v>39912</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1451,10 +1730,16 @@
         <v>116</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1361515494</v>
+      </c>
+      <c r="G6" s="8">
+        <v>39826</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1468,10 +1753,16 @@
         <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G7" s="8">
+        <v>39850</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1485,10 +1776,16 @@
         <v>118</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="F8" s="7">
+        <v>7329141610</v>
+      </c>
+      <c r="G8" s="8">
+        <v>39875</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1502,10 +1799,16 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5443134943</v>
+      </c>
+      <c r="G9" s="8">
+        <v>40109</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1519,10 +1822,16 @@
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3725272300</v>
+      </c>
+      <c r="G10" s="8">
+        <v>40181</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1536,10 +1845,16 @@
         <v>119</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1542312262</v>
+      </c>
+      <c r="G11" s="8">
+        <v>39661</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1553,10 +1868,16 @@
         <v>120</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2149333342</v>
+      </c>
+      <c r="G12" s="8">
+        <v>39937</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1570,10 +1891,16 @@
         <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="F13" s="7">
+        <v>7167564714</v>
+      </c>
+      <c r="G13" s="8">
+        <v>39399</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1587,10 +1914,16 @@
         <v>123</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="F14" s="7">
+        <v>9530290671</v>
+      </c>
+      <c r="G14" s="8">
+        <v>39212</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1604,10 +1937,16 @@
         <v>83</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="F15" s="7">
+        <v>4561535924</v>
+      </c>
+      <c r="G15" s="8">
+        <v>39786</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1621,13 +1960,19 @@
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="7">
+        <v>3231271491</v>
+      </c>
+      <c r="G16" s="8">
+        <v>39561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2021016</v>
       </c>
@@ -1638,13 +1983,19 @@
         <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="7">
+        <v>9445430292</v>
+      </c>
+      <c r="G17" s="8">
+        <v>39629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2021017</v>
       </c>
@@ -1655,13 +2006,19 @@
         <v>126</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="7">
+        <v>7527130940</v>
+      </c>
+      <c r="G18" s="8">
+        <v>39655</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2021018</v>
       </c>
@@ -1672,13 +2029,19 @@
         <v>97</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G19" s="8">
+        <v>39820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2021019</v>
       </c>
@@ -1689,13 +2052,19 @@
         <v>127</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="7">
+        <v>3262574004</v>
+      </c>
+      <c r="G20" s="8">
+        <v>39693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2021020</v>
       </c>
@@ -1706,13 +2075,19 @@
         <v>128</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="7">
+        <v>6140352552</v>
+      </c>
+      <c r="G21" s="8">
+        <v>39769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2021021</v>
       </c>
@@ -1723,13 +2098,19 @@
         <v>129</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="7">
+        <v>3756413793</v>
+      </c>
+      <c r="G22" s="8">
+        <v>39740</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2021022</v>
       </c>
@@ -1740,13 +2121,19 @@
         <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="7">
+        <v>6967585904</v>
+      </c>
+      <c r="G23" s="8">
+        <v>39848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2021023</v>
       </c>
@@ -1757,13 +2144,19 @@
         <v>131</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="7">
+        <v>9865545584</v>
+      </c>
+      <c r="G24" s="8">
+        <v>39990</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2021024</v>
       </c>
@@ -1774,13 +2167,19 @@
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="7">
+        <v>3951474493</v>
+      </c>
+      <c r="G25" s="8">
+        <v>39739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2021025</v>
       </c>
@@ -1791,61 +2190,88 @@
         <v>132</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G26" s="8">
+        <v>39416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>2021026</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>133</v>
+        <v>388</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="7">
+        <v>7421140590</v>
+      </c>
+      <c r="G27" s="8">
+        <v>39444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>2021027</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G28" s="8">
+        <v>39698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>2021028</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>142</v>
+      <c r="D29" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="7">
+        <v>9242363262</v>
+      </c>
+      <c r="G29" s="8">
+        <v>39793</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>2021029</v>
       </c>
@@ -1855,11 +2281,20 @@
       <c r="C30" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="D30" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E30" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="7">
+        <v>1246323382</v>
+      </c>
+      <c r="G30" s="8">
+        <v>40022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>2021030</v>
       </c>
@@ -1867,41 +2302,68 @@
         <v>46</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="7">
+        <v>5559424703</v>
+      </c>
+      <c r="G31" s="8">
+        <v>39794</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>2021031</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>145</v>
+      <c r="D32" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="7">
+        <v>5311210271</v>
+      </c>
+      <c r="G32" s="8">
+        <v>39387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>2021032</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>147</v>
+      <c r="D33" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="7">
+        <v>6932241731</v>
+      </c>
+      <c r="G33" s="8">
+        <v>39517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>2021033</v>
       </c>
@@ -1909,13 +2371,22 @@
         <v>102</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="7">
+        <v>4048454912</v>
+      </c>
+      <c r="G34" s="8">
+        <v>40119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>2021034</v>
       </c>
@@ -1925,25 +2396,43 @@
       <c r="C35" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="D35" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="E35" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="7">
+        <v>1849301362</v>
+      </c>
+      <c r="G35" s="8">
+        <v>39342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>2021035</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>150</v>
+      <c r="D36" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="7">
+        <v>4953463743</v>
+      </c>
+      <c r="G36" s="8">
+        <v>39435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>2021036</v>
       </c>
@@ -1951,55 +2440,91 @@
         <v>74</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="7">
+        <v>6351484733</v>
+      </c>
+      <c r="G37" s="8">
+        <v>40112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2021037</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="D38" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E38" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="7">
+        <v>7343312492</v>
+      </c>
+      <c r="G38" s="8">
+        <v>39479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2021038</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>154</v>
+      <c r="D39" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G39" s="8">
+        <v>39372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2021039</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>156</v>
+      <c r="D40" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="7">
+        <v>8355454573</v>
+      </c>
+      <c r="G40" s="8">
+        <v>39811</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>2021040</v>
       </c>
@@ -2009,11 +2534,20 @@
       <c r="C41" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="D41" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="E41" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G41" s="8">
+        <v>39638</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>2021041</v>
       </c>
@@ -2023,11 +2557,20 @@
       <c r="C42" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D42" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E42" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="7">
+        <v>4363564214</v>
+      </c>
+      <c r="G42" s="8">
+        <v>39662</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>2021042</v>
       </c>
@@ -2037,11 +2580,20 @@
       <c r="C43" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="D43" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="E43" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="7">
+        <v>5234272581</v>
+      </c>
+      <c r="G43" s="8">
+        <v>39854</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>2021043</v>
       </c>
@@ -2051,11 +2603,20 @@
       <c r="C44" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="D44" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="E44" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="7">
+        <v>2523181430</v>
+      </c>
+      <c r="G44" s="8">
+        <v>40029</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>2021044</v>
       </c>
@@ -2063,41 +2624,68 @@
         <v>51</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="7">
+        <v>4634270641</v>
+      </c>
+      <c r="G45" s="8">
+        <v>39231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>2021045</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>159</v>
+      <c r="D46" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="7">
+        <v>5538201621</v>
+      </c>
+      <c r="G46" s="8">
+        <v>39649</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>2021046</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="D47" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E47" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="7">
+        <v>6834272151</v>
+      </c>
+      <c r="G47" s="8">
+        <v>39886</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>2021047</v>
       </c>
@@ -2105,13 +2693,22 @@
         <v>161</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="7">
+        <v>9620190920</v>
+      </c>
+      <c r="G48" s="8">
+        <v>39402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>2021048</v>
       </c>
@@ -2119,528 +2716,735 @@
         <v>56</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="7">
+        <v>4624190480</v>
+      </c>
+      <c r="G49" s="8">
+        <v>39544</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>2021049</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>165</v>
+      <c r="D50" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="7">
+        <v>8457433513</v>
+      </c>
+      <c r="G50" s="8">
+        <v>39488</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>2021050</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="D51" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E51" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="7">
+        <v>8158434583</v>
+      </c>
+      <c r="G51" s="8">
+        <v>39956</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>2021051</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>168</v>
+      <c r="D52" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="7">
+        <v>3465584544</v>
+      </c>
+      <c r="G52" s="8">
+        <v>39448</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>2021052</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>170</v>
+      <c r="D53" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="7">
+        <v>4320222531</v>
+      </c>
+      <c r="G53" s="8">
+        <v>39822</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>2021053</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="7">
+        <v>5958424773</v>
+      </c>
+      <c r="G54" s="8">
+        <v>40069</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>2021054</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="D55" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="7">
+        <v>1138222631</v>
+      </c>
+      <c r="G55" s="8">
+        <v>39774</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>2021055</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="D56" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="7">
+        <v>5332271811</v>
+      </c>
+      <c r="G56" s="8">
+        <v>39410</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>2021056</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="D57" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="7">
+        <v>6732291251</v>
+      </c>
+      <c r="G57" s="8">
+        <v>39587</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>2021057</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="D58" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G58" s="8">
+        <v>39975</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>2021058</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="D59" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="7">
+        <v>2756413613</v>
+      </c>
+      <c r="G59" s="8">
+        <v>39755</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>2021059</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="D60" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="7">
+        <v>4221171010</v>
+      </c>
+      <c r="G60" s="8">
+        <v>39755</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>2021060</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="D61" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="7">
+        <v>6862504494</v>
+      </c>
+      <c r="G61" s="8">
+        <v>39559</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>2021061</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="D62" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="7">
+        <v>1467544124</v>
+      </c>
+      <c r="G62" s="8">
+        <v>39789</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>2021062</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="D63" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="7">
+        <v>4725180470</v>
+      </c>
+      <c r="G63" s="8">
+        <v>39795</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>2021063</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="D64" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="7">
+        <v>8355403483</v>
+      </c>
+      <c r="G64" s="8">
+        <v>39703</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>2021064</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="D65" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="7">
+        <v>8229189490</v>
+      </c>
+      <c r="G65" s="8">
+        <v>39297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>2021065</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="D66" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="7">
+        <v>9151483133</v>
+      </c>
+      <c r="G66" s="8">
+        <v>39548</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>2021066</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="7">
+        <v>3229101560</v>
+      </c>
+      <c r="G67" s="8">
+        <v>39884</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>2021067</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="D68" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="7">
+        <v>1661595074</v>
+      </c>
+      <c r="G68" s="8">
+        <v>39775</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>2021068</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="D69" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="7">
+        <v>4469553664</v>
+      </c>
+      <c r="G69" s="8">
+        <v>40011</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>2021069</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G70" s="8">
+        <v>39231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>2021070</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="7">
+        <v>1639272761</v>
+      </c>
+      <c r="G71" s="8">
+        <v>39917</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>2021071</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="D72" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="7">
+        <v>2765564594</v>
+      </c>
+      <c r="G72" s="8">
+        <v>39499</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>2021072</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="D73" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G73" s="8">
+        <v>39753</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>2021073</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="7">
+        <v>3425151170</v>
+      </c>
+      <c r="G74" s="8">
+        <v>40019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>2021074</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="D75" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="7">
+        <v>1249333752</v>
+      </c>
+      <c r="G75" s="8">
+        <v>39824</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>2021075</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="7">
+        <v>3928170800</v>
+      </c>
+      <c r="G76" s="8">
+        <v>39722</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>2021076</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="D77" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="7">
+        <v>9150483963</v>
+      </c>
+      <c r="G77" s="8">
+        <v>39702</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>2021077</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="D78" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="7">
+        <v>9246383022</v>
+      </c>
+      <c r="G78" s="8">
+        <v>40076</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>2021078</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="D79" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="7">
+        <v>9048392332</v>
+      </c>
+      <c r="G79" s="8">
+        <v>39546</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>2021079</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>220</v>
-      </c>
       <c r="D80" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="7">
+        <v>6524180840</v>
+      </c>
+      <c r="G80" s="8">
+        <v>39592</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>2021080</v>
       </c>
@@ -2650,11 +3454,20 @@
       <c r="C81" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="D81" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="E81" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G81" s="8">
+        <v>39699</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>2021081</v>
       </c>
@@ -2664,81 +3477,127 @@
       <c r="C82" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="D82" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E82" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="7">
+        <v>8458424423</v>
+      </c>
+      <c r="G82" s="8">
+        <v>39901</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>2021082</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>222</v>
+      <c r="D83" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="7">
+        <v>3738261111</v>
+      </c>
+      <c r="G83" s="8">
+        <v>39668</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>2021083</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D84" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E84" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="7">
+        <v>1250453143</v>
+      </c>
+      <c r="G84" s="8">
+        <v>39731</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>2021084</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="D85" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E85" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="7">
+        <v>2655483433</v>
+      </c>
+      <c r="G85" s="8">
+        <v>39528</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>2021085</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>226</v>
+      <c r="D86" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G86" s="8">
+        <v>39608</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>2021086</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="D87" s="5"/>
       <c r="E87" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>2021087</v>
       </c>
@@ -2746,13 +3605,22 @@
         <v>35</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="7">
+        <v>1032201851</v>
+      </c>
+      <c r="G88" s="8">
+        <v>44419</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>2021088</v>
       </c>
@@ -2760,13 +3628,22 @@
         <v>79</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="7">
+        <v>7456434993</v>
+      </c>
+      <c r="G89" s="8">
+        <v>40121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>2021089</v>
       </c>
@@ -2776,11 +3653,20 @@
       <c r="C90" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="D90" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="E90" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="7">
+        <v>6132250841</v>
+      </c>
+      <c r="G90" s="8">
+        <v>39412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>2021090</v>
       </c>
@@ -2788,13 +3674,22 @@
         <v>66</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="7">
+        <v>4140303202</v>
+      </c>
+      <c r="G91" s="8">
+        <v>40044</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>2021091</v>
       </c>
@@ -2804,11 +3699,20 @@
       <c r="C92" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="D92" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="E92" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="7">
+        <v>3457493963</v>
+      </c>
+      <c r="G92" s="8">
+        <v>39523</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>2021092</v>
       </c>
@@ -2816,41 +3720,68 @@
         <v>27</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="7">
+        <v>4139282541</v>
+      </c>
+      <c r="G93" s="8">
+        <v>39934</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>2021093</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>233</v>
+      <c r="D94" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="7">
+        <v>7759570353</v>
+      </c>
+      <c r="G94" s="8">
+        <v>39769</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>2021094</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>234</v>
+        <v>86</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>86</v>
+        <v>233</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="7">
+        <v>5868503304</v>
+      </c>
+      <c r="G95" s="8">
+        <v>39320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>2021095</v>
       </c>
@@ -2858,69 +3789,114 @@
         <v>125</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="7">
+        <v>3445352372</v>
+      </c>
+      <c r="G96" s="8">
+        <v>39762</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>2021096</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="D97" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E97" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="7">
+        <v>3620180170</v>
+      </c>
+      <c r="G97" s="8">
+        <v>39765</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>2021097</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>238</v>
+      <c r="D98" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G98" s="8">
+        <v>39466</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>2021098</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>240</v>
+      <c r="D99" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="7">
+        <v>4262564824</v>
+      </c>
+      <c r="G99" s="8">
+        <v>39566</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>2021099</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="D100" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E100" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="7">
+        <v>8746322042</v>
+      </c>
+      <c r="G100" s="8">
+        <v>39558</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>2021100</v>
       </c>
@@ -2928,13 +3904,22 @@
         <v>87</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="7">
+        <v>3637200231</v>
+      </c>
+      <c r="G101" s="8">
+        <v>39364</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>2021101</v>
       </c>
@@ -2942,27 +3927,45 @@
         <v>15</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="7">
+        <v>7957505823</v>
+      </c>
+      <c r="G102" s="8">
+        <v>40166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>2021102</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>245</v>
+      <c r="D103" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="7">
+        <v>1255433843</v>
+      </c>
+      <c r="G103" s="8">
+        <v>39464</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>2021103</v>
       </c>
@@ -2972,11 +3975,20 @@
       <c r="C104" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="D104" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="E104" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="7">
+        <v>7941391422</v>
+      </c>
+      <c r="G104" s="8">
+        <v>39146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>2021104</v>
       </c>
@@ -2984,13 +3996,22 @@
         <v>99</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="7">
+        <v>7343393552</v>
+      </c>
+      <c r="G105" s="8">
+        <v>40014</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>2021105</v>
       </c>
@@ -2998,390 +4019,603 @@
         <v>9</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G106" s="8">
+        <v>39882</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
-        <v>2021106</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>61</v>
+        <v>2021119</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F107" s="4"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>2021107</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>249</v>
+        <v>2021120</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>248</v>
+        <v>259</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F108" s="4"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="7">
+        <v>4263574714</v>
+      </c>
+      <c r="G108" s="8">
+        <v>39774</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <v>2021108</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>5</v>
+        <v>2021121</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>250</v>
+        <v>60</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F109" s="4"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="7">
+        <v>4246343292</v>
+      </c>
+      <c r="G109" s="8">
+        <v>40042</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <v>2021109</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>251</v>
+        <v>2021122</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>43</v>
+        <v>260</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F110" s="4"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G110" s="8">
+        <v>39402</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>2021110</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>63</v>
+        <v>2021123</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F111" s="4"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="7">
+        <v>1026191770</v>
+      </c>
+      <c r="G111" s="8">
+        <v>39896</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <v>2021111</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>63</v>
+        <v>2021124</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>103</v>
+        <v>261</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F112" s="4"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="7">
+        <v>9256463283</v>
+      </c>
+      <c r="G112" s="8">
+        <v>39798</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <v>2021112</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>253</v>
+        <v>2021125</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>252</v>
+        <v>88</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F113" s="4"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="7">
+        <v>4237373061</v>
+      </c>
+      <c r="G113" s="8">
+        <v>40152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
-        <v>2021113</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>56</v>
+        <v>2021126</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>254</v>
+        <v>263</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F114" s="4"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G114" s="8">
+        <v>39789</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <v>2021114</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>76</v>
+        <v>2021127</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>255</v>
+        <v>73</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F115" s="4"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="7">
+        <v>1367534194</v>
+      </c>
+      <c r="G115" s="8">
+        <v>39788</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <v>2021115</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>70</v>
+        <v>2021128</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F116" s="4"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="7">
+        <v>8022130660</v>
+      </c>
+      <c r="G116" s="8">
+        <v>39752</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
-        <v>2021116</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>256</v>
+        <v>2021129</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F117" s="4"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="7">
+        <v>2725170180</v>
+      </c>
+      <c r="G117" s="8">
+        <v>39523</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
-        <v>2021117</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>9</v>
+        <v>2021130</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>257</v>
+        <v>266</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F118" s="4"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G118" s="8">
+        <v>40076</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
-        <v>2021118</v>
+        <v>2021131</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D119" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E119" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="7">
+        <v>3753404283</v>
+      </c>
+      <c r="G119" s="8">
+        <v>40057</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <v>2021119</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>42</v>
+        <v>2021106</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G120" s="8">
+        <v>39338</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
-        <v>2021120</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>17</v>
+        <v>2021107</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>260</v>
+        <v>247</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="7">
+        <v>3757453153</v>
+      </c>
+      <c r="G121" s="8">
+        <v>39441</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <v>2021121</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>4</v>
+        <v>2021108</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>60</v>
+        <v>249</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="7">
+        <v>2120151750</v>
+      </c>
+      <c r="G122" s="8">
+        <v>39813</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <v>2021122</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>4</v>
+        <v>2021109</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>261</v>
+        <v>43</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F123" s="7">
+        <v>4643352402</v>
+      </c>
+      <c r="G123" s="8">
+        <v>39454</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>2021123</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>21</v>
+        <v>2021110</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="7">
+        <v>4347343592</v>
+      </c>
+      <c r="G124" s="8">
+        <v>40109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <v>2021124</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>263</v>
+        <v>2021111</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>262</v>
+        <v>103</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="7">
+        <v>6831270131</v>
+      </c>
+      <c r="G125" s="8">
+        <v>39294</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <v>2021125</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>80</v>
+        <v>2021112</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>88</v>
+        <v>251</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="7">
+        <v>2622181070</v>
+      </c>
+      <c r="G126" s="8">
+        <v>39996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <v>2021126</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>30</v>
+        <v>2021113</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="7">
+        <v>1441331212</v>
+      </c>
+      <c r="G127" s="8">
+        <v>39091</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <v>2021127</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>91</v>
+        <v>2021114</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>73</v>
+        <v>254</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="7">
+        <v>2858493923</v>
+      </c>
+      <c r="G128" s="8">
+        <v>39769</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <v>2021128</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>265</v>
+        <v>2021115</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="7">
+        <v>1744363722</v>
+      </c>
+      <c r="G129" s="8">
+        <v>39748</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <v>2021129</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>266</v>
+        <v>2021116</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D130" s="5"/>
       <c r="E130" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
-        <v>2021130</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>39</v>
+        <v>2021117</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="7">
+        <v>8031232541</v>
+      </c>
+      <c r="G131" s="8">
+        <v>39887</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
-        <v>2021131</v>
+        <v>2021118</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>268</v>
+        <v>258</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="7">
+        <v>6051483673</v>
+      </c>
+      <c r="G132" s="8">
+        <v>39632</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>2021132</v>
       </c>
@@ -3391,11 +4625,20 @@
       <c r="C133" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="D133" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="E133" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F133" s="7">
+        <v>9458484773</v>
+      </c>
+      <c r="G133" s="8">
+        <v>39905</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>2021133</v>
       </c>
@@ -3405,81 +4648,135 @@
       <c r="C134" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="D134" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E134" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F134" s="7">
+        <v>5462504304</v>
+      </c>
+      <c r="G134" s="8">
+        <v>39447</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>2021134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="D135" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E135" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F135" s="7">
+        <v>5834252091</v>
+      </c>
+      <c r="G135" s="8">
+        <v>39799</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>2021135</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>272</v>
+      <c r="D136" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F136" s="7">
+        <v>8166533074</v>
+      </c>
+      <c r="G136" s="8">
+        <v>39192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>2021136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D137" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E137" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F137" s="7">
+        <v>4150414023</v>
+      </c>
+      <c r="G137" s="8">
+        <v>39983</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>2021137</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>275</v>
+      <c r="D138" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G138" s="8">
+        <v>40136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>2021138</v>
       </c>
       <c r="B139" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>277</v>
+      <c r="D139" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F139" s="7">
+        <v>2731251381</v>
+      </c>
+      <c r="G139" s="8">
+        <v>39714</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>2021139</v>
       </c>
@@ -3489,11 +4786,20 @@
       <c r="C140" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="D140" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E140" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F140" s="7">
+        <v>6839310931</v>
+      </c>
+      <c r="G140" s="8">
+        <v>39827</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>2021140</v>
       </c>
@@ -3501,27 +4807,45 @@
         <v>18</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F141" s="7">
+        <v>7164573734</v>
+      </c>
+      <c r="G141" s="8">
+        <v>39308</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>2021141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D142" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E142" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F142" s="7">
+        <v>4943361502</v>
+      </c>
+      <c r="G142" s="8">
+        <v>39350</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>2021142</v>
       </c>
@@ -3531,25 +4855,44 @@
       <c r="C143" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="D143" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E143" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G143" s="8">
+        <v>39732</v>
+      </c>
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>2021143</v>
       </c>
       <c r="B144" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>281</v>
+      <c r="D144" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F144" s="7">
+        <v>3826101940</v>
+      </c>
+      <c r="G144" s="8">
+        <v>40078</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>2021144</v>
       </c>
@@ -3559,11 +4902,20 @@
       <c r="C145" s="4" t="s">
         <v>59</v>
       </c>
+      <c r="D145" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E145" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G145" s="8">
+        <v>39649</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>2021145</v>
       </c>
@@ -3573,11 +4925,20 @@
       <c r="C146" s="4" t="s">
         <v>103</v>
       </c>
+      <c r="D146" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E146" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G146" s="8">
+        <v>39959</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>2021146</v>
       </c>
@@ -3585,13 +4946,22 @@
         <v>23</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F147" s="7">
+        <v>6252472473</v>
+      </c>
+      <c r="G147" s="8">
+        <v>39332</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>2021147</v>
       </c>
@@ -3599,13 +4969,22 @@
         <v>90</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F148" s="7">
+        <v>2763525644</v>
+      </c>
+      <c r="G148" s="8">
+        <v>39912</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>2021148</v>
       </c>
@@ -3615,11 +4994,20 @@
       <c r="C149" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="D149" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="E149" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G149" s="8">
+        <v>39963</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>2021149</v>
       </c>
@@ -3627,13 +5015,22 @@
         <v>7</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F150" s="7">
+        <v>6052403873</v>
+      </c>
+      <c r="G150" s="8">
+        <v>39677</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>2021150</v>
       </c>
@@ -3641,27 +5038,45 @@
         <v>39</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G151" s="8">
+        <v>39849</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>2021151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F152" s="7">
+        <v>5751454693</v>
+      </c>
+      <c r="G152" s="8">
+        <v>40011</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>2021152</v>
       </c>
@@ -3669,27 +5084,45 @@
         <v>16</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F153" s="7">
+        <v>2839252111</v>
+      </c>
+      <c r="G153" s="8">
+        <v>39960</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>2021153</v>
       </c>
       <c r="B154" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C154" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>289</v>
+      <c r="D154" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F154" s="7">
+        <v>2458454723</v>
+      </c>
+      <c r="G154" s="8">
+        <v>40023</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>2021154</v>
       </c>
@@ -3697,13 +5130,22 @@
         <v>52</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F155" s="7">
+        <v>6541342512</v>
+      </c>
+      <c r="G155" s="8">
+        <v>39432</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>2021155</v>
       </c>
@@ -3711,13 +5153,22 @@
         <v>63</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F156" s="7">
+        <v>2137251651</v>
+      </c>
+      <c r="G156" s="8">
+        <v>39528</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>2021156</v>
       </c>
@@ -3725,27 +5176,45 @@
         <v>64</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F157" s="7">
+        <v>3851453333</v>
+      </c>
+      <c r="G157" s="8">
+        <v>39731</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>2021157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="D158" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="E158" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F158" s="7">
+        <v>4050453453</v>
+      </c>
+      <c r="G158" s="8">
+        <v>39710</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>2021601</v>
       </c>
@@ -3753,220 +5222,220 @@
         <v>89</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F159" s="6">
+        <v>295</v>
+      </c>
+      <c r="F159" s="9">
         <v>2121146200</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>2021602</v>
       </c>
       <c r="B160" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>300</v>
-      </c>
       <c r="E160" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F160" s="4">
+        <v>295</v>
+      </c>
+      <c r="F160" s="7">
         <v>9755489223</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>2021603</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C161" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="E161" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F161" s="4">
+        <v>295</v>
+      </c>
+      <c r="F161" s="7">
         <v>4056449863</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>2021604</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F162" s="4">
+        <v>295</v>
+      </c>
+      <c r="F162" s="7">
         <v>7742328722</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>2021605</v>
       </c>
       <c r="B163" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C163" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C163" s="4" t="s">
-        <v>305</v>
-      </c>
       <c r="E163" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F163" s="4">
+        <v>295</v>
+      </c>
+      <c r="F163" s="7">
         <v>3738245311</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>2021606</v>
       </c>
       <c r="B164" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C164" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C164" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="E164" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F164" s="4">
+        <v>295</v>
+      </c>
+      <c r="F164" s="7">
         <v>5549338322</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>2021607</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C165" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="E165" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F165" s="4">
+        <v>295</v>
+      </c>
+      <c r="F165" s="7">
         <v>8043348482</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>2021608</v>
       </c>
       <c r="B166" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C166" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>311</v>
-      </c>
       <c r="E166" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F166" s="4">
+        <v>295</v>
+      </c>
+      <c r="F166" s="7">
         <v>9865529504</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>2021609</v>
       </c>
       <c r="B167" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>313</v>
-      </c>
       <c r="E167" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F167" s="4">
+        <v>295</v>
+      </c>
+      <c r="F167" s="7">
         <v>7361570564</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>2021610</v>
       </c>
       <c r="B168" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C168" s="4" t="s">
-        <v>315</v>
-      </c>
       <c r="E168" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F168" s="4">
+        <v>295</v>
+      </c>
+      <c r="F168" s="7">
         <v>7232217311</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>2021611</v>
       </c>
       <c r="B169" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C169" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="E169" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F169" s="4">
+        <v>295</v>
+      </c>
+      <c r="F169" s="7">
         <v>5739237111</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>2021612</v>
       </c>
       <c r="B170" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C170" s="4" t="s">
-        <v>319</v>
-      </c>
       <c r="E170" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F170" s="4">
+        <v>295</v>
+      </c>
+      <c r="F170" s="7">
         <v>5522156940</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>2021613</v>
       </c>
       <c r="B171" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C171" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C171" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="E171" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F171" s="4">
+        <v>295</v>
+      </c>
+      <c r="F171" s="7">
         <v>15604004725</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>2021614</v>
       </c>
@@ -3974,18 +5443,662 @@
         <v>76</v>
       </c>
       <c r="C172" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F172" s="7">
+        <v>8426144580</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>2021158</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E173" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="E172" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F172" s="4">
-        <v>8426144580</v>
+      <c r="F173" s="7">
+        <v>4122139780</v>
+      </c>
+      <c r="G173" s="8">
+        <v>39291</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="5">
+        <v>2021159</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F174" s="7">
+        <v>6723140550</v>
+      </c>
+      <c r="G174" s="8">
+        <v>39562</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="5">
+        <v>2021160</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F175" s="7">
+        <v>1239231331</v>
+      </c>
+      <c r="G175" s="8">
+        <v>39599</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="5">
+        <v>2021161</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F176" s="7">
+        <v>4426120270</v>
+      </c>
+      <c r="G176" s="8">
+        <v>39583</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="5">
+        <v>2021162</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F177" s="7">
+        <v>1530242011</v>
+      </c>
+      <c r="G177" s="8">
+        <v>40117</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="5">
+        <v>2021163</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F178" s="7">
+        <v>2739242401</v>
+      </c>
+      <c r="G178" s="8">
+        <v>39932</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="5">
+        <v>2021164</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F179" s="7">
+        <v>3564666514</v>
+      </c>
+      <c r="G179" s="8">
+        <v>40083</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="5">
+        <v>2021165</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F180" s="7">
+        <v>1565522834</v>
+      </c>
+      <c r="G180" s="8">
+        <v>39022</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="5">
+        <v>2021166</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G181" s="8">
+        <v>39527</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="5">
+        <v>2021167</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F182" s="7">
+        <v>2645332242</v>
+      </c>
+      <c r="G182" s="8">
+        <v>39461</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="5">
+        <v>2021168</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F183" s="7">
+        <v>4452422103</v>
+      </c>
+      <c r="G183" s="8">
+        <v>39135</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="5">
+        <v>2021169</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F184" s="7">
+        <v>4256432303</v>
+      </c>
+      <c r="G184" s="8">
+        <v>39069</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="5">
+        <v>2021170</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F185" s="7">
+        <v>3651404763</v>
+      </c>
+      <c r="G185" s="8">
+        <v>39828</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="5">
+        <v>2021171</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F186" s="7">
+        <v>3763584804</v>
+      </c>
+      <c r="G186" s="8">
+        <v>39632</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="5">
+        <v>2021172</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F187" s="7">
+        <v>8045391142</v>
+      </c>
+      <c r="G187" s="8">
+        <v>39382</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="5">
+        <v>2021173</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F188" s="7">
+        <v>6460554044</v>
+      </c>
+      <c r="G188" s="8">
+        <v>39699</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="5">
+        <v>2021174</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F189" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G189" s="8">
+        <v>39974</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="5">
+        <v>2021175</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F190" s="7">
+        <v>3737241691</v>
+      </c>
+      <c r="G190" s="8">
+        <v>39489</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="5">
+        <v>2021176</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F191" s="7">
+        <v>720149720</v>
+      </c>
+      <c r="G191" s="8">
+        <v>39400</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="5">
+        <v>2021177</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G192" s="8">
+        <v>39597</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="5">
+        <v>2021178</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G193" s="8">
+        <v>39783</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="5">
+        <v>2021179</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F194" s="7">
+        <v>1759453883</v>
+      </c>
+      <c r="G194" s="8">
+        <v>39493</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="5">
+        <v>2021180</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F195" s="7">
+        <v>7630291131</v>
+      </c>
+      <c r="G195" s="8">
+        <v>39639</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="5">
+        <v>2021181</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F196" s="7">
+        <v>8564524144</v>
+      </c>
+      <c r="G196" s="8">
+        <v>39590</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="5">
+        <v>2021182</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F197" s="7">
+        <v>2864688984</v>
+      </c>
+      <c r="G197" s="8">
+        <v>39053</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="5">
+        <v>2021183</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F198" s="7">
+        <v>4925140990</v>
+      </c>
+      <c r="G198" s="8">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="5">
+        <v>2021184</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G199" s="8">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="5">
+        <v>2021185</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F200" s="7">
+        <v>7445372272</v>
+      </c>
+      <c r="G200" s="8">
+        <v>39409</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C2:F1125">
-    <sortCondition ref="E2:E1125"/>
+  <sortState ref="A107:E132">
+    <sortCondition ref="B107:B132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/files/students.xlsx
+++ b/public/files/students.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="566">
   <si>
     <t>id</t>
   </si>
@@ -1230,6 +1230,498 @@
   </si>
   <si>
     <t>0530292201</t>
+  </si>
+  <si>
+    <t>2007-06-19</t>
+  </si>
+  <si>
+    <t>2007-11-18</t>
+  </si>
+  <si>
+    <t>2007-01-18</t>
+  </si>
+  <si>
+    <t>2009-04-09</t>
+  </si>
+  <si>
+    <t>2009-01-13</t>
+  </si>
+  <si>
+    <t>2009-02-06</t>
+  </si>
+  <si>
+    <t>2009-03-03</t>
+  </si>
+  <si>
+    <t>2009-10-23</t>
+  </si>
+  <si>
+    <t>2010-01-03</t>
+  </si>
+  <si>
+    <t>2008-08-01</t>
+  </si>
+  <si>
+    <t>2009-05-04</t>
+  </si>
+  <si>
+    <t>2007-11-13</t>
+  </si>
+  <si>
+    <t>2007-05-10</t>
+  </si>
+  <si>
+    <t>2008-12-04</t>
+  </si>
+  <si>
+    <t>2008-04-23</t>
+  </si>
+  <si>
+    <t>2008-06-30</t>
+  </si>
+  <si>
+    <t>2008-07-26</t>
+  </si>
+  <si>
+    <t>2009-01-07</t>
+  </si>
+  <si>
+    <t>2008-09-02</t>
+  </si>
+  <si>
+    <t>2008-11-17</t>
+  </si>
+  <si>
+    <t>2008-10-19</t>
+  </si>
+  <si>
+    <t>2009-02-04</t>
+  </si>
+  <si>
+    <t>2009-06-26</t>
+  </si>
+  <si>
+    <t>2008-10-18</t>
+  </si>
+  <si>
+    <t>2007-11-30</t>
+  </si>
+  <si>
+    <t>2007-12-28</t>
+  </si>
+  <si>
+    <t>2008-09-07</t>
+  </si>
+  <si>
+    <t>2008-12-11</t>
+  </si>
+  <si>
+    <t>2009-07-28</t>
+  </si>
+  <si>
+    <t>2008-12-12</t>
+  </si>
+  <si>
+    <t>2007-11-01</t>
+  </si>
+  <si>
+    <t>2008-03-10</t>
+  </si>
+  <si>
+    <t>2009-11-02</t>
+  </si>
+  <si>
+    <t>2007-09-17</t>
+  </si>
+  <si>
+    <t>2007-12-19</t>
+  </si>
+  <si>
+    <t>2009-10-26</t>
+  </si>
+  <si>
+    <t>2008-02-01</t>
+  </si>
+  <si>
+    <t>2007-10-17</t>
+  </si>
+  <si>
+    <t>2008-12-29</t>
+  </si>
+  <si>
+    <t>2008-07-09</t>
+  </si>
+  <si>
+    <t>2008-08-02</t>
+  </si>
+  <si>
+    <t>2009-02-10</t>
+  </si>
+  <si>
+    <t>2009-08-04</t>
+  </si>
+  <si>
+    <t>2007-05-29</t>
+  </si>
+  <si>
+    <t>2008-07-20</t>
+  </si>
+  <si>
+    <t>2009-03-14</t>
+  </si>
+  <si>
+    <t>2007-11-16</t>
+  </si>
+  <si>
+    <t>2008-04-06</t>
+  </si>
+  <si>
+    <t>2008-02-10</t>
+  </si>
+  <si>
+    <t>2009-05-23</t>
+  </si>
+  <si>
+    <t>2008-01-01</t>
+  </si>
+  <si>
+    <t>2009-01-09</t>
+  </si>
+  <si>
+    <t>2009-09-13</t>
+  </si>
+  <si>
+    <t>2008-11-22</t>
+  </si>
+  <si>
+    <t>2007-11-24</t>
+  </si>
+  <si>
+    <t>2008-05-19</t>
+  </si>
+  <si>
+    <t>2009-06-11</t>
+  </si>
+  <si>
+    <t>2008-11-03</t>
+  </si>
+  <si>
+    <t>2008-04-21</t>
+  </si>
+  <si>
+    <t>2008-12-07</t>
+  </si>
+  <si>
+    <t>2008-12-13</t>
+  </si>
+  <si>
+    <t>2008-09-12</t>
+  </si>
+  <si>
+    <t>2007-08-03</t>
+  </si>
+  <si>
+    <t>2008-04-10</t>
+  </si>
+  <si>
+    <t>2009-03-12</t>
+  </si>
+  <si>
+    <t>2008-11-23</t>
+  </si>
+  <si>
+    <t>2009-07-17</t>
+  </si>
+  <si>
+    <t>2009-04-14</t>
+  </si>
+  <si>
+    <t>2008-02-21</t>
+  </si>
+  <si>
+    <t>2008-11-01</t>
+  </si>
+  <si>
+    <t>2009-07-25</t>
+  </si>
+  <si>
+    <t>2009-01-11</t>
+  </si>
+  <si>
+    <t>2008-10-01</t>
+  </si>
+  <si>
+    <t>2008-09-11</t>
+  </si>
+  <si>
+    <t>2009-09-20</t>
+  </si>
+  <si>
+    <t>2008-04-08</t>
+  </si>
+  <si>
+    <t>2008-05-24</t>
+  </si>
+  <si>
+    <t>2008-09-08</t>
+  </si>
+  <si>
+    <t>2009-03-29</t>
+  </si>
+  <si>
+    <t>2008-08-08</t>
+  </si>
+  <si>
+    <t>2008-10-10</t>
+  </si>
+  <si>
+    <t>2008-03-21</t>
+  </si>
+  <si>
+    <t>2008-06-09</t>
+  </si>
+  <si>
+    <t>2021-08-11</t>
+  </si>
+  <si>
+    <t>2009-11-04</t>
+  </si>
+  <si>
+    <t>2007-11-26</t>
+  </si>
+  <si>
+    <t>2009-08-19</t>
+  </si>
+  <si>
+    <t>2008-03-16</t>
+  </si>
+  <si>
+    <t>2009-05-01</t>
+  </si>
+  <si>
+    <t>2007-08-26</t>
+  </si>
+  <si>
+    <t>2008-11-10</t>
+  </si>
+  <si>
+    <t>2008-11-13</t>
+  </si>
+  <si>
+    <t>2008-01-19</t>
+  </si>
+  <si>
+    <t>2008-04-28</t>
+  </si>
+  <si>
+    <t>2008-04-20</t>
+  </si>
+  <si>
+    <t>2007-10-09</t>
+  </si>
+  <si>
+    <t>2009-12-19</t>
+  </si>
+  <si>
+    <t>2008-01-17</t>
+  </si>
+  <si>
+    <t>2007-03-05</t>
+  </si>
+  <si>
+    <t>2009-07-20</t>
+  </si>
+  <si>
+    <t>2009-03-10</t>
+  </si>
+  <si>
+    <t>2009-08-17</t>
+  </si>
+  <si>
+    <t>2009-03-24</t>
+  </si>
+  <si>
+    <t>2008-12-16</t>
+  </si>
+  <si>
+    <t>2009-12-05</t>
+  </si>
+  <si>
+    <t>2008-12-06</t>
+  </si>
+  <si>
+    <t>2008-10-31</t>
+  </si>
+  <si>
+    <t>2009-09-01</t>
+  </si>
+  <si>
+    <t>2007-09-13</t>
+  </si>
+  <si>
+    <t>2007-12-25</t>
+  </si>
+  <si>
+    <t>2008-12-31</t>
+  </si>
+  <si>
+    <t>2008-01-07</t>
+  </si>
+  <si>
+    <t>2007-07-31</t>
+  </si>
+  <si>
+    <t>2009-07-02</t>
+  </si>
+  <si>
+    <t>2007-01-09</t>
+  </si>
+  <si>
+    <t>2008-10-27</t>
+  </si>
+  <si>
+    <t>2009-03-15</t>
+  </si>
+  <si>
+    <t>2008-07-03</t>
+  </si>
+  <si>
+    <t>2009-04-02</t>
+  </si>
+  <si>
+    <t>2007-12-31</t>
+  </si>
+  <si>
+    <t>2008-12-17</t>
+  </si>
+  <si>
+    <t>2007-04-20</t>
+  </si>
+  <si>
+    <t>2009-06-19</t>
+  </si>
+  <si>
+    <t>2009-11-19</t>
+  </si>
+  <si>
+    <t>2008-09-23</t>
+  </si>
+  <si>
+    <t>2009-01-14</t>
+  </si>
+  <si>
+    <t>2007-08-14</t>
+  </si>
+  <si>
+    <t>2007-09-25</t>
+  </si>
+  <si>
+    <t>2008-10-11</t>
+  </si>
+  <si>
+    <t>2009-09-22</t>
+  </si>
+  <si>
+    <t>2009-05-26</t>
+  </si>
+  <si>
+    <t>2007-09-07</t>
+  </si>
+  <si>
+    <t>2009-05-30</t>
+  </si>
+  <si>
+    <t>2008-08-17</t>
+  </si>
+  <si>
+    <t>2009-02-05</t>
+  </si>
+  <si>
+    <t>2009-05-27</t>
+  </si>
+  <si>
+    <t>2009-07-29</t>
+  </si>
+  <si>
+    <t>2007-12-16</t>
+  </si>
+  <si>
+    <t>2008-09-19</t>
+  </si>
+  <si>
+    <t>2007-07-28</t>
+  </si>
+  <si>
+    <t>2008-04-24</t>
+  </si>
+  <si>
+    <t>2008-05-31</t>
+  </si>
+  <si>
+    <t>2008-05-15</t>
+  </si>
+  <si>
+    <t>2009-10-31</t>
+  </si>
+  <si>
+    <t>2009-04-29</t>
+  </si>
+  <si>
+    <t>2009-09-27</t>
+  </si>
+  <si>
+    <t>2006-11-01</t>
+  </si>
+  <si>
+    <t>2008-03-20</t>
+  </si>
+  <si>
+    <t>2008-01-14</t>
+  </si>
+  <si>
+    <t>2007-02-22</t>
+  </si>
+  <si>
+    <t>2006-12-18</t>
+  </si>
+  <si>
+    <t>2009-01-15</t>
+  </si>
+  <si>
+    <t>2007-10-27</t>
+  </si>
+  <si>
+    <t>2009-06-10</t>
+  </si>
+  <si>
+    <t>2008-02-11</t>
+  </si>
+  <si>
+    <t>2007-11-14</t>
+  </si>
+  <si>
+    <t>2008-05-29</t>
+  </si>
+  <si>
+    <t>2008-12-01</t>
+  </si>
+  <si>
+    <t>2008-02-15</t>
+  </si>
+  <si>
+    <t>2008-07-10</t>
+  </si>
+  <si>
+    <t>2008-05-22</t>
+  </si>
+  <si>
+    <t>2006-12-02</t>
+  </si>
+  <si>
+    <t>2008-04-27</t>
+  </si>
+  <si>
+    <t>2007-11-23</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1729,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1294,7 +1786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1580,11 +2072,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H108" sqref="H108:M132"/>
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,12 +2088,11 @@
     <col min="5" max="5" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="14" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1646,8 +2137,8 @@
       <c r="F2" s="7">
         <v>1421189560</v>
       </c>
-      <c r="G2" s="8">
-        <v>39252</v>
+      <c r="G2" s="8" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1669,8 +2160,8 @@
       <c r="F3" s="7">
         <v>9824181060</v>
       </c>
-      <c r="G3" s="8">
-        <v>39404</v>
+      <c r="G3" s="8" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1692,8 +2183,8 @@
       <c r="F4" s="7">
         <v>4563504524</v>
       </c>
-      <c r="G4" s="8">
-        <v>39100</v>
+      <c r="G4" s="8" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1715,8 +2206,8 @@
       <c r="F5" s="7">
         <v>3469515894</v>
       </c>
-      <c r="G5" s="8">
-        <v>39912</v>
+      <c r="G5" s="8" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1738,8 +2229,8 @@
       <c r="F6" s="7">
         <v>1361515494</v>
       </c>
-      <c r="G6" s="8">
-        <v>39826</v>
+      <c r="G6" s="8" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1761,8 +2252,8 @@
       <c r="F7" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="G7" s="8">
-        <v>39850</v>
+      <c r="G7" s="8" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1784,8 +2275,8 @@
       <c r="F8" s="7">
         <v>7329141610</v>
       </c>
-      <c r="G8" s="8">
-        <v>39875</v>
+      <c r="G8" s="8" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1807,8 +2298,8 @@
       <c r="F9" s="7">
         <v>5443134943</v>
       </c>
-      <c r="G9" s="8">
-        <v>40109</v>
+      <c r="G9" s="8" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1830,8 +2321,8 @@
       <c r="F10" s="7">
         <v>3725272300</v>
       </c>
-      <c r="G10" s="8">
-        <v>40181</v>
+      <c r="G10" s="8" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1853,8 +2344,8 @@
       <c r="F11" s="7">
         <v>1542312262</v>
       </c>
-      <c r="G11" s="8">
-        <v>39661</v>
+      <c r="G11" s="8" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1876,8 +2367,8 @@
       <c r="F12" s="7">
         <v>2149333342</v>
       </c>
-      <c r="G12" s="8">
-        <v>39937</v>
+      <c r="G12" s="8" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1899,8 +2390,8 @@
       <c r="F13" s="7">
         <v>7167564714</v>
       </c>
-      <c r="G13" s="8">
-        <v>39399</v>
+      <c r="G13" s="8" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1922,8 +2413,8 @@
       <c r="F14" s="7">
         <v>9530290671</v>
       </c>
-      <c r="G14" s="8">
-        <v>39212</v>
+      <c r="G14" s="8" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1945,8 +2436,8 @@
       <c r="F15" s="7">
         <v>4561535924</v>
       </c>
-      <c r="G15" s="8">
-        <v>39786</v>
+      <c r="G15" s="8" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1968,8 +2459,8 @@
       <c r="F16" s="7">
         <v>3231271491</v>
       </c>
-      <c r="G16" s="8">
-        <v>39561</v>
+      <c r="G16" s="8" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1991,8 +2482,8 @@
       <c r="F17" s="7">
         <v>9445430292</v>
       </c>
-      <c r="G17" s="8">
-        <v>39629</v>
+      <c r="G17" s="8" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2014,8 +2505,8 @@
       <c r="F18" s="7">
         <v>7527130940</v>
       </c>
-      <c r="G18" s="8">
-        <v>39655</v>
+      <c r="G18" s="8" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2037,8 +2528,8 @@
       <c r="F19" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="G19" s="8">
-        <v>39820</v>
+      <c r="G19" s="8" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2060,8 +2551,8 @@
       <c r="F20" s="7">
         <v>3262574004</v>
       </c>
-      <c r="G20" s="8">
-        <v>39693</v>
+      <c r="G20" s="8" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2083,8 +2574,8 @@
       <c r="F21" s="7">
         <v>6140352552</v>
       </c>
-      <c r="G21" s="8">
-        <v>39769</v>
+      <c r="G21" s="8" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2106,8 +2597,8 @@
       <c r="F22" s="7">
         <v>3756413793</v>
       </c>
-      <c r="G22" s="8">
-        <v>39740</v>
+      <c r="G22" s="8" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2129,8 +2620,8 @@
       <c r="F23" s="7">
         <v>6967585904</v>
       </c>
-      <c r="G23" s="8">
-        <v>39848</v>
+      <c r="G23" s="8" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2152,8 +2643,8 @@
       <c r="F24" s="7">
         <v>9865545584</v>
       </c>
-      <c r="G24" s="8">
-        <v>39990</v>
+      <c r="G24" s="8" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2175,8 +2666,8 @@
       <c r="F25" s="7">
         <v>3951474493</v>
       </c>
-      <c r="G25" s="8">
-        <v>39739</v>
+      <c r="G25" s="8" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2198,8 +2689,8 @@
       <c r="F26" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="G26" s="8">
-        <v>39416</v>
+      <c r="G26" s="8" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2221,8 +2712,8 @@
       <c r="F27" s="7">
         <v>7421140590</v>
       </c>
-      <c r="G27" s="8">
-        <v>39444</v>
+      <c r="G27" s="8" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2244,8 +2735,8 @@
       <c r="F28" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="G28" s="8">
-        <v>39698</v>
+      <c r="G28" s="8" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2267,8 +2758,8 @@
       <c r="F29" s="7">
         <v>9242363262</v>
       </c>
-      <c r="G29" s="8">
-        <v>39793</v>
+      <c r="G29" s="8" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2290,8 +2781,8 @@
       <c r="F30" s="7">
         <v>1246323382</v>
       </c>
-      <c r="G30" s="8">
-        <v>40022</v>
+      <c r="G30" s="8" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2313,8 +2804,8 @@
       <c r="F31" s="7">
         <v>5559424703</v>
       </c>
-      <c r="G31" s="8">
-        <v>39794</v>
+      <c r="G31" s="8" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2336,8 +2827,8 @@
       <c r="F32" s="7">
         <v>5311210271</v>
       </c>
-      <c r="G32" s="8">
-        <v>39387</v>
+      <c r="G32" s="8" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2359,8 +2850,8 @@
       <c r="F33" s="7">
         <v>6932241731</v>
       </c>
-      <c r="G33" s="8">
-        <v>39517</v>
+      <c r="G33" s="8" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2382,8 +2873,8 @@
       <c r="F34" s="7">
         <v>4048454912</v>
       </c>
-      <c r="G34" s="8">
-        <v>40119</v>
+      <c r="G34" s="8" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2405,8 +2896,8 @@
       <c r="F35" s="7">
         <v>1849301362</v>
       </c>
-      <c r="G35" s="8">
-        <v>39342</v>
+      <c r="G35" s="8" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2428,8 +2919,8 @@
       <c r="F36" s="7">
         <v>4953463743</v>
       </c>
-      <c r="G36" s="8">
-        <v>39435</v>
+      <c r="G36" s="8" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2451,8 +2942,8 @@
       <c r="F37" s="7">
         <v>6351484733</v>
       </c>
-      <c r="G37" s="8">
-        <v>40112</v>
+      <c r="G37" s="8" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2474,8 +2965,8 @@
       <c r="F38" s="7">
         <v>7343312492</v>
       </c>
-      <c r="G38" s="8">
-        <v>39479</v>
+      <c r="G38" s="8" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2497,8 +2988,8 @@
       <c r="F39" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="G39" s="8">
-        <v>39372</v>
+      <c r="G39" s="8" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2520,8 +3011,8 @@
       <c r="F40" s="7">
         <v>8355454573</v>
       </c>
-      <c r="G40" s="8">
-        <v>39811</v>
+      <c r="G40" s="8" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2543,8 +3034,8 @@
       <c r="F41" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="G41" s="8">
-        <v>39638</v>
+      <c r="G41" s="8" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2566,8 +3057,8 @@
       <c r="F42" s="7">
         <v>4363564214</v>
       </c>
-      <c r="G42" s="8">
-        <v>39662</v>
+      <c r="G42" s="8" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2589,8 +3080,8 @@
       <c r="F43" s="7">
         <v>5234272581</v>
       </c>
-      <c r="G43" s="8">
-        <v>39854</v>
+      <c r="G43" s="8" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2612,8 +3103,8 @@
       <c r="F44" s="7">
         <v>2523181430</v>
       </c>
-      <c r="G44" s="8">
-        <v>40029</v>
+      <c r="G44" s="8" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2635,8 +3126,8 @@
       <c r="F45" s="7">
         <v>4634270641</v>
       </c>
-      <c r="G45" s="8">
-        <v>39231</v>
+      <c r="G45" s="8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2658,8 +3149,8 @@
       <c r="F46" s="7">
         <v>5538201621</v>
       </c>
-      <c r="G46" s="8">
-        <v>39649</v>
+      <c r="G46" s="8" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2681,8 +3172,8 @@
       <c r="F47" s="7">
         <v>6834272151</v>
       </c>
-      <c r="G47" s="8">
-        <v>39886</v>
+      <c r="G47" s="8" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2704,8 +3195,8 @@
       <c r="F48" s="7">
         <v>9620190920</v>
       </c>
-      <c r="G48" s="8">
-        <v>39402</v>
+      <c r="G48" s="8" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2727,8 +3218,8 @@
       <c r="F49" s="7">
         <v>4624190480</v>
       </c>
-      <c r="G49" s="8">
-        <v>39544</v>
+      <c r="G49" s="8" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2750,8 +3241,8 @@
       <c r="F50" s="7">
         <v>8457433513</v>
       </c>
-      <c r="G50" s="8">
-        <v>39488</v>
+      <c r="G50" s="8" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2773,8 +3264,8 @@
       <c r="F51" s="7">
         <v>8158434583</v>
       </c>
-      <c r="G51" s="8">
-        <v>39956</v>
+      <c r="G51" s="8" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2796,8 +3287,8 @@
       <c r="F52" s="7">
         <v>3465584544</v>
       </c>
-      <c r="G52" s="8">
-        <v>39448</v>
+      <c r="G52" s="8" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2819,8 +3310,8 @@
       <c r="F53" s="7">
         <v>4320222531</v>
       </c>
-      <c r="G53" s="8">
-        <v>39822</v>
+      <c r="G53" s="8" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2842,8 +3333,8 @@
       <c r="F54" s="7">
         <v>5958424773</v>
       </c>
-      <c r="G54" s="8">
-        <v>40069</v>
+      <c r="G54" s="8" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2865,8 +3356,8 @@
       <c r="F55" s="7">
         <v>1138222631</v>
       </c>
-      <c r="G55" s="8">
-        <v>39774</v>
+      <c r="G55" s="8" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2888,8 +3379,8 @@
       <c r="F56" s="7">
         <v>5332271811</v>
       </c>
-      <c r="G56" s="8">
-        <v>39410</v>
+      <c r="G56" s="8" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2911,8 +3402,8 @@
       <c r="F57" s="7">
         <v>6732291251</v>
       </c>
-      <c r="G57" s="8">
-        <v>39587</v>
+      <c r="G57" s="8" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2934,8 +3425,8 @@
       <c r="F58" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="G58" s="8">
-        <v>39975</v>
+      <c r="G58" s="8" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2957,8 +3448,8 @@
       <c r="F59" s="7">
         <v>2756413613</v>
       </c>
-      <c r="G59" s="8">
-        <v>39755</v>
+      <c r="G59" s="8" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2980,8 +3471,8 @@
       <c r="F60" s="7">
         <v>4221171010</v>
       </c>
-      <c r="G60" s="8">
-        <v>39755</v>
+      <c r="G60" s="8" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3003,8 +3494,8 @@
       <c r="F61" s="7">
         <v>6862504494</v>
       </c>
-      <c r="G61" s="8">
-        <v>39559</v>
+      <c r="G61" s="8" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3026,8 +3517,8 @@
       <c r="F62" s="7">
         <v>1467544124</v>
       </c>
-      <c r="G62" s="8">
-        <v>39789</v>
+      <c r="G62" s="8" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3049,8 +3540,8 @@
       <c r="F63" s="7">
         <v>4725180470</v>
       </c>
-      <c r="G63" s="8">
-        <v>39795</v>
+      <c r="G63" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3072,8 +3563,8 @@
       <c r="F64" s="7">
         <v>8355403483</v>
       </c>
-      <c r="G64" s="8">
-        <v>39703</v>
+      <c r="G64" s="8" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3095,8 +3586,8 @@
       <c r="F65" s="7">
         <v>8229189490</v>
       </c>
-      <c r="G65" s="8">
-        <v>39297</v>
+      <c r="G65" s="8" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3118,8 +3609,8 @@
       <c r="F66" s="7">
         <v>9151483133</v>
       </c>
-      <c r="G66" s="8">
-        <v>39548</v>
+      <c r="G66" s="8" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3141,8 +3632,8 @@
       <c r="F67" s="7">
         <v>3229101560</v>
       </c>
-      <c r="G67" s="8">
-        <v>39884</v>
+      <c r="G67" s="8" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3164,8 +3655,8 @@
       <c r="F68" s="7">
         <v>1661595074</v>
       </c>
-      <c r="G68" s="8">
-        <v>39775</v>
+      <c r="G68" s="8" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3187,8 +3678,8 @@
       <c r="F69" s="7">
         <v>4469553664</v>
       </c>
-      <c r="G69" s="8">
-        <v>40011</v>
+      <c r="G69" s="8" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3210,8 +3701,8 @@
       <c r="F70" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="G70" s="8">
-        <v>39231</v>
+      <c r="G70" s="8" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3233,8 +3724,8 @@
       <c r="F71" s="7">
         <v>1639272761</v>
       </c>
-      <c r="G71" s="8">
-        <v>39917</v>
+      <c r="G71" s="8" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3256,8 +3747,8 @@
       <c r="F72" s="7">
         <v>2765564594</v>
       </c>
-      <c r="G72" s="8">
-        <v>39499</v>
+      <c r="G72" s="8" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3279,8 +3770,8 @@
       <c r="F73" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="G73" s="8">
-        <v>39753</v>
+      <c r="G73" s="8" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3302,8 +3793,8 @@
       <c r="F74" s="7">
         <v>3425151170</v>
       </c>
-      <c r="G74" s="8">
-        <v>40019</v>
+      <c r="G74" s="8" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3325,8 +3816,8 @@
       <c r="F75" s="7">
         <v>1249333752</v>
       </c>
-      <c r="G75" s="8">
-        <v>39824</v>
+      <c r="G75" s="8" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3348,8 +3839,8 @@
       <c r="F76" s="7">
         <v>3928170800</v>
       </c>
-      <c r="G76" s="8">
-        <v>39722</v>
+      <c r="G76" s="8" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3371,8 +3862,8 @@
       <c r="F77" s="7">
         <v>9150483963</v>
       </c>
-      <c r="G77" s="8">
-        <v>39702</v>
+      <c r="G77" s="8" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3394,8 +3885,8 @@
       <c r="F78" s="7">
         <v>9246383022</v>
       </c>
-      <c r="G78" s="8">
-        <v>40076</v>
+      <c r="G78" s="8" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3417,8 +3908,8 @@
       <c r="F79" s="7">
         <v>9048392332</v>
       </c>
-      <c r="G79" s="8">
-        <v>39546</v>
+      <c r="G79" s="8" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3440,8 +3931,8 @@
       <c r="F80" s="7">
         <v>6524180840</v>
       </c>
-      <c r="G80" s="8">
-        <v>39592</v>
+      <c r="G80" s="8" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3463,8 +3954,8 @@
       <c r="F81" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="G81" s="8">
-        <v>39699</v>
+      <c r="G81" s="8" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3486,8 +3977,8 @@
       <c r="F82" s="7">
         <v>8458424423</v>
       </c>
-      <c r="G82" s="8">
-        <v>39901</v>
+      <c r="G82" s="8" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3509,8 +4000,8 @@
       <c r="F83" s="7">
         <v>3738261111</v>
       </c>
-      <c r="G83" s="8">
-        <v>39668</v>
+      <c r="G83" s="8" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3532,8 +4023,8 @@
       <c r="F84" s="7">
         <v>1250453143</v>
       </c>
-      <c r="G84" s="8">
-        <v>39731</v>
+      <c r="G84" s="8" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3555,8 +4046,8 @@
       <c r="F85" s="7">
         <v>2655483433</v>
       </c>
-      <c r="G85" s="8">
-        <v>39528</v>
+      <c r="G85" s="8" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3578,8 +4069,8 @@
       <c r="F86" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="G86" s="8">
-        <v>39608</v>
+      <c r="G86" s="8" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3616,8 +4107,8 @@
       <c r="F88" s="7">
         <v>1032201851</v>
       </c>
-      <c r="G88" s="8">
-        <v>44419</v>
+      <c r="G88" s="8" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3639,8 +4130,8 @@
       <c r="F89" s="7">
         <v>7456434993</v>
       </c>
-      <c r="G89" s="8">
-        <v>40121</v>
+      <c r="G89" s="8" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3662,8 +4153,8 @@
       <c r="F90" s="7">
         <v>6132250841</v>
       </c>
-      <c r="G90" s="8">
-        <v>39412</v>
+      <c r="G90" s="8" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3685,8 +4176,8 @@
       <c r="F91" s="7">
         <v>4140303202</v>
       </c>
-      <c r="G91" s="8">
-        <v>40044</v>
+      <c r="G91" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3708,8 +4199,8 @@
       <c r="F92" s="7">
         <v>3457493963</v>
       </c>
-      <c r="G92" s="8">
-        <v>39523</v>
+      <c r="G92" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3731,8 +4222,8 @@
       <c r="F93" s="7">
         <v>4139282541</v>
       </c>
-      <c r="G93" s="8">
-        <v>39934</v>
+      <c r="G93" s="8" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3754,8 +4245,8 @@
       <c r="F94" s="7">
         <v>7759570353</v>
       </c>
-      <c r="G94" s="8">
-        <v>39769</v>
+      <c r="G94" s="8" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3777,8 +4268,8 @@
       <c r="F95" s="7">
         <v>5868503304</v>
       </c>
-      <c r="G95" s="8">
-        <v>39320</v>
+      <c r="G95" s="8" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3800,8 +4291,8 @@
       <c r="F96" s="7">
         <v>3445352372</v>
       </c>
-      <c r="G96" s="8">
-        <v>39762</v>
+      <c r="G96" s="8" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3823,8 +4314,8 @@
       <c r="F97" s="7">
         <v>3620180170</v>
       </c>
-      <c r="G97" s="8">
-        <v>39765</v>
+      <c r="G97" s="8" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3846,8 +4337,8 @@
       <c r="F98" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="G98" s="8">
-        <v>39466</v>
+      <c r="G98" s="8" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3869,8 +4360,8 @@
       <c r="F99" s="7">
         <v>4262564824</v>
       </c>
-      <c r="G99" s="8">
-        <v>39566</v>
+      <c r="G99" s="8" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3892,8 +4383,8 @@
       <c r="F100" s="7">
         <v>8746322042</v>
       </c>
-      <c r="G100" s="8">
-        <v>39558</v>
+      <c r="G100" s="8" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3915,8 +4406,8 @@
       <c r="F101" s="7">
         <v>3637200231</v>
       </c>
-      <c r="G101" s="8">
-        <v>39364</v>
+      <c r="G101" s="8" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3938,8 +4429,8 @@
       <c r="F102" s="7">
         <v>7957505823</v>
       </c>
-      <c r="G102" s="8">
-        <v>40166</v>
+      <c r="G102" s="8" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3961,8 +4452,8 @@
       <c r="F103" s="7">
         <v>1255433843</v>
       </c>
-      <c r="G103" s="8">
-        <v>39464</v>
+      <c r="G103" s="8" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3984,8 +4475,8 @@
       <c r="F104" s="7">
         <v>7941391422</v>
       </c>
-      <c r="G104" s="8">
-        <v>39146</v>
+      <c r="G104" s="8" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4007,8 +4498,8 @@
       <c r="F105" s="7">
         <v>7343393552</v>
       </c>
-      <c r="G105" s="8">
-        <v>40014</v>
+      <c r="G105" s="8" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4030,8 +4521,8 @@
       <c r="F106" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="G106" s="8">
-        <v>39882</v>
+      <c r="G106" s="8" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4067,8 +4558,8 @@
       <c r="F108" s="7">
         <v>4263574714</v>
       </c>
-      <c r="G108" s="8">
-        <v>39774</v>
+      <c r="G108" s="8" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4090,8 +4581,8 @@
       <c r="F109" s="7">
         <v>4246343292</v>
       </c>
-      <c r="G109" s="8">
-        <v>40042</v>
+      <c r="G109" s="8" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4113,8 +4604,8 @@
       <c r="F110" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="G110" s="8">
-        <v>39402</v>
+      <c r="G110" s="8" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4136,8 +4627,8 @@
       <c r="F111" s="7">
         <v>1026191770</v>
       </c>
-      <c r="G111" s="8">
-        <v>39896</v>
+      <c r="G111" s="8" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4159,8 +4650,8 @@
       <c r="F112" s="7">
         <v>9256463283</v>
       </c>
-      <c r="G112" s="8">
-        <v>39798</v>
+      <c r="G112" s="8" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4182,8 +4673,8 @@
       <c r="F113" s="7">
         <v>4237373061</v>
       </c>
-      <c r="G113" s="8">
-        <v>40152</v>
+      <c r="G113" s="8" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4205,8 +4696,8 @@
       <c r="F114" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="G114" s="8">
-        <v>39789</v>
+      <c r="G114" s="8" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4228,8 +4719,8 @@
       <c r="F115" s="7">
         <v>1367534194</v>
       </c>
-      <c r="G115" s="8">
-        <v>39788</v>
+      <c r="G115" s="8" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4251,8 +4742,8 @@
       <c r="F116" s="7">
         <v>8022130660</v>
       </c>
-      <c r="G116" s="8">
-        <v>39752</v>
+      <c r="G116" s="8" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4274,8 +4765,8 @@
       <c r="F117" s="7">
         <v>2725170180</v>
       </c>
-      <c r="G117" s="8">
-        <v>39523</v>
+      <c r="G117" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4297,8 +4788,8 @@
       <c r="F118" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="G118" s="8">
-        <v>40076</v>
+      <c r="G118" s="8" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4320,8 +4811,8 @@
       <c r="F119" s="7">
         <v>3753404283</v>
       </c>
-      <c r="G119" s="8">
-        <v>40057</v>
+      <c r="G119" s="8" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4343,8 +4834,8 @@
       <c r="F120" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="G120" s="8">
-        <v>39338</v>
+      <c r="G120" s="8" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4366,8 +4857,8 @@
       <c r="F121" s="7">
         <v>3757453153</v>
       </c>
-      <c r="G121" s="8">
-        <v>39441</v>
+      <c r="G121" s="8" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4389,8 +4880,8 @@
       <c r="F122" s="7">
         <v>2120151750</v>
       </c>
-      <c r="G122" s="8">
-        <v>39813</v>
+      <c r="G122" s="8" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4412,8 +4903,8 @@
       <c r="F123" s="7">
         <v>4643352402</v>
       </c>
-      <c r="G123" s="8">
-        <v>39454</v>
+      <c r="G123" s="8" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4435,8 +4926,8 @@
       <c r="F124" s="7">
         <v>4347343592</v>
       </c>
-      <c r="G124" s="8">
-        <v>40109</v>
+      <c r="G124" s="8" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4458,8 +4949,8 @@
       <c r="F125" s="7">
         <v>6831270131</v>
       </c>
-      <c r="G125" s="8">
-        <v>39294</v>
+      <c r="G125" s="8" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4481,8 +4972,8 @@
       <c r="F126" s="7">
         <v>2622181070</v>
       </c>
-      <c r="G126" s="8">
-        <v>39996</v>
+      <c r="G126" s="8" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4504,8 +4995,8 @@
       <c r="F127" s="7">
         <v>1441331212</v>
       </c>
-      <c r="G127" s="8">
-        <v>39091</v>
+      <c r="G127" s="8" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4527,11 +5018,11 @@
       <c r="F128" s="7">
         <v>2858493923</v>
       </c>
-      <c r="G128" s="8">
-        <v>39769</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G128" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>2021115</v>
       </c>
@@ -4550,11 +5041,11 @@
       <c r="F129" s="7">
         <v>1744363722</v>
       </c>
-      <c r="G129" s="8">
-        <v>39748</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G129" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>2021116</v>
       </c>
@@ -4569,7 +5060,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>2021117</v>
       </c>
@@ -4588,11 +5079,11 @@
       <c r="F131" s="7">
         <v>8031232541</v>
       </c>
-      <c r="G131" s="8">
-        <v>39887</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G131" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>2021118</v>
       </c>
@@ -4611,11 +5102,11 @@
       <c r="F132" s="7">
         <v>6051483673</v>
       </c>
-      <c r="G132" s="8">
-        <v>39632</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G132" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>2021132</v>
       </c>
@@ -4634,11 +5125,11 @@
       <c r="F133" s="7">
         <v>9458484773</v>
       </c>
-      <c r="G133" s="8">
-        <v>39905</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G133" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>2021133</v>
       </c>
@@ -4657,11 +5148,11 @@
       <c r="F134" s="7">
         <v>5462504304</v>
       </c>
-      <c r="G134" s="8">
-        <v>39447</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G134" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>2021134</v>
       </c>
@@ -4680,11 +5171,11 @@
       <c r="F135" s="7">
         <v>5834252091</v>
       </c>
-      <c r="G135" s="8">
-        <v>39799</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G135" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>2021135</v>
       </c>
@@ -4703,11 +5194,11 @@
       <c r="F136" s="7">
         <v>8166533074</v>
       </c>
-      <c r="G136" s="8">
-        <v>39192</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G136" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>2021136</v>
       </c>
@@ -4726,11 +5217,11 @@
       <c r="F137" s="7">
         <v>4150414023</v>
       </c>
-      <c r="G137" s="8">
-        <v>39983</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G137" s="8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>2021137</v>
       </c>
@@ -4749,11 +5240,11 @@
       <c r="F138" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G138" s="8">
-        <v>40136</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G138" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>2021138</v>
       </c>
@@ -4772,11 +5263,11 @@
       <c r="F139" s="7">
         <v>2731251381</v>
       </c>
-      <c r="G139" s="8">
-        <v>39714</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G139" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>2021139</v>
       </c>
@@ -4795,11 +5286,11 @@
       <c r="F140" s="7">
         <v>6839310931</v>
       </c>
-      <c r="G140" s="8">
-        <v>39827</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G140" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>2021140</v>
       </c>
@@ -4818,11 +5309,11 @@
       <c r="F141" s="7">
         <v>7164573734</v>
       </c>
-      <c r="G141" s="8">
-        <v>39308</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G141" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>2021141</v>
       </c>
@@ -4841,11 +5332,11 @@
       <c r="F142" s="7">
         <v>4943361502</v>
       </c>
-      <c r="G142" s="8">
-        <v>39350</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G142" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>2021142</v>
       </c>
@@ -4864,12 +5355,12 @@
       <c r="F143" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="G143" s="8">
-        <v>39732</v>
-      </c>
-      <c r="I143" s="6"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G143" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="H143" s="6"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>2021143</v>
       </c>
@@ -4888,8 +5379,8 @@
       <c r="F144" s="7">
         <v>3826101940</v>
       </c>
-      <c r="G144" s="8">
-        <v>40078</v>
+      <c r="G144" s="8" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4911,8 +5402,8 @@
       <c r="F145" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="G145" s="8">
-        <v>39649</v>
+      <c r="G145" s="8" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4934,8 +5425,8 @@
       <c r="F146" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="G146" s="8">
-        <v>39959</v>
+      <c r="G146" s="8" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4957,8 +5448,8 @@
       <c r="F147" s="7">
         <v>6252472473</v>
       </c>
-      <c r="G147" s="8">
-        <v>39332</v>
+      <c r="G147" s="8" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4980,8 +5471,8 @@
       <c r="F148" s="7">
         <v>2763525644</v>
       </c>
-      <c r="G148" s="8">
-        <v>39912</v>
+      <c r="G148" s="8" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5003,8 +5494,8 @@
       <c r="F149" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="G149" s="8">
-        <v>39963</v>
+      <c r="G149" s="8" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5026,8 +5517,8 @@
       <c r="F150" s="7">
         <v>6052403873</v>
       </c>
-      <c r="G150" s="8">
-        <v>39677</v>
+      <c r="G150" s="8" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5049,8 +5540,8 @@
       <c r="F151" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="G151" s="8">
-        <v>39849</v>
+      <c r="G151" s="8" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5072,8 +5563,8 @@
       <c r="F152" s="7">
         <v>5751454693</v>
       </c>
-      <c r="G152" s="8">
-        <v>40011</v>
+      <c r="G152" s="8" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5095,8 +5586,8 @@
       <c r="F153" s="7">
         <v>2839252111</v>
       </c>
-      <c r="G153" s="8">
-        <v>39960</v>
+      <c r="G153" s="8" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5118,8 +5609,8 @@
       <c r="F154" s="7">
         <v>2458454723</v>
       </c>
-      <c r="G154" s="8">
-        <v>40023</v>
+      <c r="G154" s="8" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5141,8 +5632,8 @@
       <c r="F155" s="7">
         <v>6541342512</v>
       </c>
-      <c r="G155" s="8">
-        <v>39432</v>
+      <c r="G155" s="8" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5164,8 +5655,8 @@
       <c r="F156" s="7">
         <v>2137251651</v>
       </c>
-      <c r="G156" s="8">
-        <v>39528</v>
+      <c r="G156" s="8" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5187,8 +5678,8 @@
       <c r="F157" s="7">
         <v>3851453333</v>
       </c>
-      <c r="G157" s="8">
-        <v>39731</v>
+      <c r="G157" s="8" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5210,8 +5701,8 @@
       <c r="F158" s="7">
         <v>4050453453</v>
       </c>
-      <c r="G158" s="8">
-        <v>39710</v>
+      <c r="G158" s="8" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -5471,8 +5962,8 @@
       <c r="F173" s="7">
         <v>4122139780</v>
       </c>
-      <c r="G173" s="8">
-        <v>39291</v>
+      <c r="G173" s="8" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -5494,8 +5985,8 @@
       <c r="F174" s="7">
         <v>6723140550</v>
       </c>
-      <c r="G174" s="8">
-        <v>39562</v>
+      <c r="G174" s="8" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -5517,8 +6008,8 @@
       <c r="F175" s="7">
         <v>1239231331</v>
       </c>
-      <c r="G175" s="8">
-        <v>39599</v>
+      <c r="G175" s="8" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -5540,8 +6031,8 @@
       <c r="F176" s="7">
         <v>4426120270</v>
       </c>
-      <c r="G176" s="8">
-        <v>39583</v>
+      <c r="G176" s="8" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -5563,8 +6054,8 @@
       <c r="F177" s="7">
         <v>1530242011</v>
       </c>
-      <c r="G177" s="8">
-        <v>40117</v>
+      <c r="G177" s="8" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -5586,8 +6077,8 @@
       <c r="F178" s="7">
         <v>2739242401</v>
       </c>
-      <c r="G178" s="8">
-        <v>39932</v>
+      <c r="G178" s="8" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -5609,8 +6100,8 @@
       <c r="F179" s="7">
         <v>3564666514</v>
       </c>
-      <c r="G179" s="8">
-        <v>40083</v>
+      <c r="G179" s="8" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -5632,8 +6123,8 @@
       <c r="F180" s="7">
         <v>1565522834</v>
       </c>
-      <c r="G180" s="8">
-        <v>39022</v>
+      <c r="G180" s="8" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -5655,8 +6146,8 @@
       <c r="F181" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="G181" s="8">
-        <v>39527</v>
+      <c r="G181" s="8" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -5678,8 +6169,8 @@
       <c r="F182" s="7">
         <v>2645332242</v>
       </c>
-      <c r="G182" s="8">
-        <v>39461</v>
+      <c r="G182" s="8" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -5701,8 +6192,8 @@
       <c r="F183" s="7">
         <v>4452422103</v>
       </c>
-      <c r="G183" s="8">
-        <v>39135</v>
+      <c r="G183" s="8" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -5724,8 +6215,8 @@
       <c r="F184" s="7">
         <v>4256432303</v>
       </c>
-      <c r="G184" s="8">
-        <v>39069</v>
+      <c r="G184" s="8" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5747,8 +6238,8 @@
       <c r="F185" s="7">
         <v>3651404763</v>
       </c>
-      <c r="G185" s="8">
-        <v>39828</v>
+      <c r="G185" s="8" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -5770,8 +6261,8 @@
       <c r="F186" s="7">
         <v>3763584804</v>
       </c>
-      <c r="G186" s="8">
-        <v>39632</v>
+      <c r="G186" s="8" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5793,8 +6284,8 @@
       <c r="F187" s="7">
         <v>8045391142</v>
       </c>
-      <c r="G187" s="8">
-        <v>39382</v>
+      <c r="G187" s="8" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5816,8 +6307,8 @@
       <c r="F188" s="7">
         <v>6460554044</v>
       </c>
-      <c r="G188" s="8">
-        <v>39699</v>
+      <c r="G188" s="8" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5839,8 +6330,8 @@
       <c r="F189" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G189" s="8">
-        <v>39974</v>
+      <c r="G189" s="8" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -5862,8 +6353,8 @@
       <c r="F190" s="7">
         <v>3737241691</v>
       </c>
-      <c r="G190" s="8">
-        <v>39489</v>
+      <c r="G190" s="8" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -5885,8 +6376,8 @@
       <c r="F191" s="7">
         <v>720149720</v>
       </c>
-      <c r="G191" s="8">
-        <v>39400</v>
+      <c r="G191" s="8" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -5908,8 +6399,8 @@
       <c r="F192" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="G192" s="8">
-        <v>39597</v>
+      <c r="G192" s="8" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5931,8 +6422,8 @@
       <c r="F193" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G193" s="8">
-        <v>39783</v>
+      <c r="G193" s="8" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -5954,8 +6445,8 @@
       <c r="F194" s="7">
         <v>1759453883</v>
       </c>
-      <c r="G194" s="8">
-        <v>39493</v>
+      <c r="G194" s="8" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5977,8 +6468,8 @@
       <c r="F195" s="7">
         <v>7630291131</v>
       </c>
-      <c r="G195" s="8">
-        <v>39639</v>
+      <c r="G195" s="8" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -6000,8 +6491,8 @@
       <c r="F196" s="7">
         <v>8564524144</v>
       </c>
-      <c r="G196" s="8">
-        <v>39590</v>
+      <c r="G196" s="8" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -6023,8 +6514,8 @@
       <c r="F197" s="7">
         <v>2864688984</v>
       </c>
-      <c r="G197" s="8">
-        <v>39053</v>
+      <c r="G197" s="8" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -6046,8 +6537,8 @@
       <c r="F198" s="7">
         <v>4925140990</v>
       </c>
-      <c r="G198" s="8">
-        <v>39565</v>
+      <c r="G198" s="8" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -6069,8 +6560,8 @@
       <c r="F199" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="G199" s="8">
-        <v>39565</v>
+      <c r="G199" s="8" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -6092,8 +6583,8 @@
       <c r="F200" s="7">
         <v>7445372272</v>
       </c>
-      <c r="G200" s="8">
-        <v>39409</v>
+      <c r="G200" s="8" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/students.xlsx
+++ b/public/files/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\projects\api\tranquillity\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C410E7DD-2DFA-4BF6-BFF2-385D6A07272E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C0C745-5F1D-45D4-842A-E7C3589897BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="745">
   <si>
     <t>id</t>
   </si>
@@ -52,9 +52,6 @@
     <t>class_id</t>
   </si>
   <si>
-    <t>KYMANI</t>
-  </si>
-  <si>
     <t>birth_pin</t>
   </si>
   <si>
@@ -1826,6 +1823,453 @@
   </si>
   <si>
     <t>krissy</t>
+  </si>
+  <si>
+    <t>2011-10-04</t>
+  </si>
+  <si>
+    <t>2010-11-22</t>
+  </si>
+  <si>
+    <t>2010-12-01</t>
+  </si>
+  <si>
+    <t>2011-02-08</t>
+  </si>
+  <si>
+    <t>2011-12-11</t>
+  </si>
+  <si>
+    <t>2012-04-21</t>
+  </si>
+  <si>
+    <t>2010-10-27</t>
+  </si>
+  <si>
+    <t>2010-12-30</t>
+  </si>
+  <si>
+    <t>2010-05-27</t>
+  </si>
+  <si>
+    <t>2011-08-26</t>
+  </si>
+  <si>
+    <t>2010-03-07</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>2011-09-18</t>
+  </si>
+  <si>
+    <t>2011-01-10</t>
+  </si>
+  <si>
+    <t>2010-07-29</t>
+  </si>
+  <si>
+    <t>2010-03-12</t>
+  </si>
+  <si>
+    <t>2009-05-10</t>
+  </si>
+  <si>
+    <t>2012-06-06</t>
+  </si>
+  <si>
+    <t>2011-01-22</t>
+  </si>
+  <si>
+    <t>2012-07-10</t>
+  </si>
+  <si>
+    <t>2024-01-26</t>
+  </si>
+  <si>
+    <t>2011-12-21</t>
+  </si>
+  <si>
+    <t>2011-03-27</t>
+  </si>
+  <si>
+    <t>2010-11-25</t>
+  </si>
+  <si>
+    <t>2011-02-21</t>
+  </si>
+  <si>
+    <t>2012-02-13</t>
+  </si>
+  <si>
+    <t>2012-04-05</t>
+  </si>
+  <si>
+    <t>2011-04-04</t>
+  </si>
+  <si>
+    <t>2010-01-10</t>
+  </si>
+  <si>
+    <t>2012-10-21</t>
+  </si>
+  <si>
+    <t>2011-07-28</t>
+  </si>
+  <si>
+    <t>2009-11-06</t>
+  </si>
+  <si>
+    <t>2011-07-20</t>
+  </si>
+  <si>
+    <t>2010-09-18</t>
+  </si>
+  <si>
+    <t>2012-03-03</t>
+  </si>
+  <si>
+    <t>2010-11-07</t>
+  </si>
+  <si>
+    <t>2010-07-07</t>
+  </si>
+  <si>
+    <t>2012-07-02</t>
+  </si>
+  <si>
+    <t>2011-03-18</t>
+  </si>
+  <si>
+    <t>2013-02-11</t>
+  </si>
+  <si>
+    <t>2024-08-28</t>
+  </si>
+  <si>
+    <t>2010-09-26</t>
+  </si>
+  <si>
+    <t>2010-12-20</t>
+  </si>
+  <si>
+    <t>2011-08-06</t>
+  </si>
+  <si>
+    <t>2011-11-16</t>
+  </si>
+  <si>
+    <t>2011-06-16</t>
+  </si>
+  <si>
+    <t>2010-08-05</t>
+  </si>
+  <si>
+    <t>2012-06-07</t>
+  </si>
+  <si>
+    <t>2011-08-24</t>
+  </si>
+  <si>
+    <t>2010-09-07</t>
+  </si>
+  <si>
+    <t>2010-08-03</t>
+  </si>
+  <si>
+    <t>2011-05-16</t>
+  </si>
+  <si>
+    <t>2011-08-30</t>
+  </si>
+  <si>
+    <t>2010-11-26</t>
+  </si>
+  <si>
+    <t>2010-06-29</t>
+  </si>
+  <si>
+    <t>2012-07-19</t>
+  </si>
+  <si>
+    <t>2010-03-11</t>
+  </si>
+  <si>
+    <t>2011-01-21</t>
+  </si>
+  <si>
+    <t>2012-09-29</t>
+  </si>
+  <si>
+    <t>2011-01-02</t>
+  </si>
+  <si>
+    <t>2011-01-04</t>
+  </si>
+  <si>
+    <t>2012-08-23</t>
+  </si>
+  <si>
+    <t>2010-12-11</t>
+  </si>
+  <si>
+    <t>2010-04-23</t>
+  </si>
+  <si>
+    <t>2011-04-19</t>
+  </si>
+  <si>
+    <t>2011-03-10</t>
+  </si>
+  <si>
+    <t>2012-05-26</t>
+  </si>
+  <si>
+    <t>2010-12-07</t>
+  </si>
+  <si>
+    <t>2011-11-14</t>
+  </si>
+  <si>
+    <t>2012-06-21</t>
+  </si>
+  <si>
+    <t>2010-12-21</t>
+  </si>
+  <si>
+    <t>2011-06-11</t>
+  </si>
+  <si>
+    <t>2010-10-06</t>
+  </si>
+  <si>
+    <t>2010-03-30</t>
+  </si>
+  <si>
+    <t>2011-07-31</t>
+  </si>
+  <si>
+    <t>2010-11-19</t>
+  </si>
+  <si>
+    <t>2010-11-17</t>
+  </si>
+  <si>
+    <t>2009-08-28</t>
+  </si>
+  <si>
+    <t>2010-01-15</t>
+  </si>
+  <si>
+    <t>2012-02-12</t>
+  </si>
+  <si>
+    <t>2011-05-15</t>
+  </si>
+  <si>
+    <t>2011-11-27</t>
+  </si>
+  <si>
+    <t>2010-02-17</t>
+  </si>
+  <si>
+    <t>2011-01-16</t>
+  </si>
+  <si>
+    <t>2011-08-10</t>
+  </si>
+  <si>
+    <t>2011-09-23</t>
+  </si>
+  <si>
+    <t>2012-03-05</t>
+  </si>
+  <si>
+    <t>2011-08-05</t>
+  </si>
+  <si>
+    <t>2011-01-07</t>
+  </si>
+  <si>
+    <t>2010-12-08</t>
+  </si>
+  <si>
+    <t>2012-05-12</t>
+  </si>
+  <si>
+    <t>2011-04-14</t>
+  </si>
+  <si>
+    <t>2011-03-22</t>
+  </si>
+  <si>
+    <t>2009-12-30</t>
+  </si>
+  <si>
+    <t>2010-11-03</t>
+  </si>
+  <si>
+    <t>2010-03-19</t>
+  </si>
+  <si>
+    <t>2011-01-08</t>
+  </si>
+  <si>
+    <t>2010-11-14</t>
+  </si>
+  <si>
+    <t>2012-12-01</t>
+  </si>
+  <si>
+    <t>2010-05-12</t>
+  </si>
+  <si>
+    <t>2010-10-20</t>
+  </si>
+  <si>
+    <t>2012-03-01</t>
+  </si>
+  <si>
+    <t>2010-05-19</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>2009-11-13</t>
+  </si>
+  <si>
+    <t>2011-08-16</t>
+  </si>
+  <si>
+    <t>2010-12-22</t>
+  </si>
+  <si>
+    <t>2012-03-18</t>
+  </si>
+  <si>
+    <t>2012-07-29</t>
+  </si>
+  <si>
+    <t>2010-10-31</t>
+  </si>
+  <si>
+    <t>2010-09-30</t>
+  </si>
+  <si>
+    <t>2012-11-30</t>
+  </si>
+  <si>
+    <t>2012-07-15</t>
+  </si>
+  <si>
+    <t>2010-09-22</t>
+  </si>
+  <si>
+    <t>2011-01-12</t>
+  </si>
+  <si>
+    <t>2011-07-09</t>
+  </si>
+  <si>
+    <t>2009-12-19</t>
+  </si>
+  <si>
+    <t>2011-10-12</t>
+  </si>
+  <si>
+    <t>2011-10-14</t>
+  </si>
+  <si>
+    <t>2010-09-14</t>
+  </si>
+  <si>
+    <t>2011-12-12</t>
+  </si>
+  <si>
+    <t>2010-08-26</t>
+  </si>
+  <si>
+    <t>2010-11-01</t>
+  </si>
+  <si>
+    <t>2011-09-03</t>
+  </si>
+  <si>
+    <t>2012-09-20</t>
+  </si>
+  <si>
+    <t>2010-10-25</t>
+  </si>
+  <si>
+    <t>2010-12-03</t>
+  </si>
+  <si>
+    <t>2012-01-05</t>
+  </si>
+  <si>
+    <t>2011-11-25</t>
+  </si>
+  <si>
+    <t>2012-03-21</t>
+  </si>
+  <si>
+    <t>2010-12-17</t>
+  </si>
+  <si>
+    <t>2024-06-23</t>
+  </si>
+  <si>
+    <t>2011-03-19</t>
+  </si>
+  <si>
+    <t>2012-11-04</t>
+  </si>
+  <si>
+    <t>2010-10-19</t>
+  </si>
+  <si>
+    <t>2010-09-21</t>
+  </si>
+  <si>
+    <t>2012-01-15</t>
+  </si>
+  <si>
+    <t>2012-04-23</t>
+  </si>
+  <si>
+    <t>2010-11-15</t>
+  </si>
+  <si>
+    <t>2010-10-30</t>
+  </si>
+  <si>
+    <t>2010-05-17</t>
+  </si>
+  <si>
+    <t>2012-08-06</t>
+  </si>
+  <si>
+    <t>2011-02-02</t>
+  </si>
+  <si>
+    <t>2012-05-30</t>
+  </si>
+  <si>
+    <t>2012-01-21</t>
+  </si>
+  <si>
+    <t>2011-05-20</t>
+  </si>
+  <si>
+    <t>2010-11-08</t>
+  </si>
+  <si>
+    <t>2011-12-15</t>
+  </si>
+  <si>
+    <t>2010-06-21</t>
   </si>
 </sst>
 </file>
@@ -2161,11 +2605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H165"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A165"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2182,7 +2626,7 @@
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2199,120 +2643,136 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2024001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="5">
-        <v>40820</v>
+        <v>100</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>596</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="I2" t="str">
+        <f>TEXT(G2,"yyyy-mm-dd")</f>
+        <v>2011-10-04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2024002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="5">
-        <v>40504</v>
+        <v>101</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>597</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I66" si="0">TEXT(G3,"yyyy-mm-dd")</f>
+        <v>2010-11-22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2024003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="5">
-        <v>40513</v>
+        <v>102</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>598</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-12-01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2024004</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="5">
-        <v>40582</v>
+        <v>103</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>599</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-02-08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2024005</v>
       </c>
@@ -2320,25 +2780,29 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="5">
-        <v>40582</v>
+      <c r="G6" s="5" t="s">
+        <v>600</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-12-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2024006</v>
       </c>
@@ -2349,22 +2813,26 @@
         <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="5">
-        <v>40888</v>
+      <c r="G7" s="5" t="s">
+        <v>601</v>
       </c>
       <c r="H7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>2012-04-21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2024007</v>
       </c>
@@ -2375,22 +2843,26 @@
         <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="5">
-        <v>41020</v>
+      <c r="G8" s="5" t="s">
+        <v>602</v>
       </c>
       <c r="H8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-10-27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2024008</v>
       </c>
@@ -2401,22 +2873,26 @@
         <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="5">
-        <v>40478</v>
+      <c r="G9" s="5" t="s">
+        <v>603</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-12-30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2024009</v>
       </c>
@@ -2424,25 +2900,29 @@
         <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="5">
-        <v>40542</v>
+      <c r="G10" s="5" t="s">
+        <v>604</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-05-27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2024010</v>
       </c>
@@ -2450,77 +2930,89 @@
         <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="5">
-        <v>40325</v>
+      <c r="G11" s="5" t="s">
+        <v>605</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-08-26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2024011</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>84</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="5">
-        <v>40781</v>
+      <c r="G12" s="5" t="s">
+        <v>606</v>
       </c>
       <c r="H12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-03-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2024012</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="5">
-        <v>40244</v>
+      <c r="G13" s="5" t="s">
+        <v>607</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-11-21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2024013</v>
       </c>
@@ -2528,51 +3020,59 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="5">
-        <v>40868</v>
+      <c r="G14" s="5" t="s">
+        <v>608</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-09-18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2024014</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="5">
-        <v>40804</v>
+      <c r="G15" s="5" t="s">
+        <v>609</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-01-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2024015</v>
       </c>
@@ -2580,77 +3080,89 @@
         <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G16" s="5">
-        <v>40553</v>
+      <c r="G16" s="5" t="s">
+        <v>610</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-07-29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2024016</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="5">
-        <v>40388</v>
+      <c r="G17" s="5" t="s">
+        <v>611</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-03-12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2024017</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
         <v>87</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="5">
-        <v>40249</v>
+      <c r="G18" s="5" t="s">
+        <v>612</v>
       </c>
       <c r="H18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>2009-05-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2024018</v>
       </c>
@@ -2661,22 +3173,26 @@
         <v>88</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="5">
-        <v>39943</v>
+      <c r="G19" s="5" t="s">
+        <v>613</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>2012-06-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2024019</v>
       </c>
@@ -2687,22 +3203,26 @@
         <v>89</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="5">
-        <v>41066</v>
+      <c r="G20" s="5" t="s">
+        <v>614</v>
       </c>
       <c r="H20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-01-22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2024020</v>
       </c>
@@ -2713,22 +3233,26 @@
         <v>90</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G21" s="5">
-        <v>40565</v>
+      <c r="G21" s="5" t="s">
+        <v>615</v>
       </c>
       <c r="H21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>2012-07-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2024021</v>
       </c>
@@ -2739,22 +3263,26 @@
         <v>91</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="5">
-        <v>41100</v>
+      <c r="G22" s="5" t="s">
+        <v>616</v>
       </c>
       <c r="H22" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-01-26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2024022</v>
       </c>
@@ -2765,74 +3293,86 @@
         <v>92</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="5">
-        <v>45317</v>
+      <c r="G23" s="5" t="s">
+        <v>617</v>
       </c>
       <c r="H23" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-12-21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2024023</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>93</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="5">
-        <v>40898</v>
+      <c r="G24" s="5" t="s">
+        <v>618</v>
       </c>
       <c r="H24" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-03-27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2024024</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G25" s="5">
-        <v>40629</v>
+      <c r="G25" s="5" t="s">
+        <v>619</v>
       </c>
       <c r="H25" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-11-25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2024025</v>
       </c>
@@ -2843,100 +3383,116 @@
         <v>95</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G26" s="5">
-        <v>40507</v>
+      <c r="G26" s="5" t="s">
+        <v>597</v>
       </c>
       <c r="H26" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-11-22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2024026</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>96</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="5">
-        <v>40504</v>
+      <c r="G27" s="5" t="s">
+        <v>620</v>
       </c>
       <c r="H27" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-02-21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2024027</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>97</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="5">
-        <v>40595</v>
+      <c r="G28" s="5" t="s">
+        <v>621</v>
       </c>
       <c r="H28" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>2012-02-13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2024028</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
         <v>98</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="5">
-        <v>40952</v>
+      <c r="G29" s="5" t="s">
+        <v>622</v>
       </c>
       <c r="H29" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>2012-04-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2024029</v>
       </c>
@@ -2947,74 +3503,86 @@
         <v>99</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G30" s="5">
-        <v>41004</v>
+      <c r="G30" s="5" t="s">
+        <v>623</v>
       </c>
       <c r="H30" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-04-04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2024030</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" s="5">
-        <v>40637</v>
+        <v>172</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>624</v>
       </c>
       <c r="H31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-01-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2024031</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
         <v>152</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G32" s="5">
-        <v>40188</v>
+      <c r="G32" s="5" t="s">
+        <v>625</v>
       </c>
       <c r="H32" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>2012-10-21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2024032</v>
       </c>
@@ -3025,22 +3593,26 @@
         <v>153</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G33" s="5">
-        <v>41203</v>
+      <c r="G33" s="5" t="s">
+        <v>626</v>
       </c>
       <c r="H33" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-07-28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2024033</v>
       </c>
@@ -3051,22 +3623,26 @@
         <v>154</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G34" s="5">
-        <v>40752</v>
+      <c r="G34" s="5" t="s">
+        <v>627</v>
       </c>
       <c r="H34" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>2009-11-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2024034</v>
       </c>
@@ -3077,22 +3653,26 @@
         <v>155</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G35" s="5">
-        <v>40123</v>
+      <c r="G35" s="5" t="s">
+        <v>628</v>
       </c>
       <c r="H35" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-07-20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2024035</v>
       </c>
@@ -3103,74 +3683,86 @@
         <v>156</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G36" s="5">
-        <v>40744</v>
+      <c r="G36" s="5" t="s">
+        <v>629</v>
       </c>
       <c r="H36" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-09-18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2024036</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>157</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G37" s="5">
-        <v>40439</v>
+      <c r="G37" s="5" t="s">
+        <v>630</v>
       </c>
       <c r="H37" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>2012-03-03</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2024037</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
         <v>158</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G38" s="5">
-        <v>40971</v>
+      <c r="G38" s="5" t="s">
+        <v>631</v>
       </c>
       <c r="H38" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-11-07</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2024038</v>
       </c>
@@ -3178,25 +3770,29 @@
         <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G39" s="5">
-        <v>40489</v>
+      <c r="G39" s="5" t="s">
+        <v>632</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-07-07</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2024039</v>
       </c>
@@ -3204,25 +3800,29 @@
         <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G40" s="5">
-        <v>40366</v>
+      <c r="G40" s="5" t="s">
+        <v>633</v>
       </c>
       <c r="H40" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>2012-07-02</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2024040</v>
       </c>
@@ -3230,25 +3830,29 @@
         <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G41" s="5">
-        <v>41092</v>
+      <c r="G41" s="5" t="s">
+        <v>634</v>
       </c>
       <c r="H41" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-03-18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2024041</v>
       </c>
@@ -3256,25 +3860,26 @@
         <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G42" s="5">
-        <v>40620</v>
-      </c>
-      <c r="H42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G42" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>2013-02-11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2024042</v>
       </c>
@@ -3285,19 +3890,23 @@
         <v>161</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G43" s="5">
-        <v>41316</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G43" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>2024-08-28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2024043</v>
       </c>
@@ -3311,16 +3920,23 @@
         <v>10</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G44" s="5">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G44" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="H44" t="s">
+        <v>208</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-03-18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2024044</v>
       </c>
@@ -3328,25 +3944,29 @@
         <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G45" s="5">
-        <v>40620</v>
+      <c r="G45" s="5" t="s">
+        <v>637</v>
       </c>
       <c r="H45" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-09-26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2024045</v>
       </c>
@@ -3354,129 +3974,149 @@
         <v>142</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G46" s="5">
-        <v>40447</v>
+      <c r="G46" s="5" t="s">
+        <v>638</v>
       </c>
       <c r="H46" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-12-20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2024046</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="G47" s="5">
-        <v>40532</v>
+      <c r="G47" s="5" t="s">
+        <v>639</v>
       </c>
       <c r="H47" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-08-06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2024047</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G48" s="5">
-        <v>40761</v>
+      <c r="G48" s="5" t="s">
+        <v>640</v>
       </c>
       <c r="H48" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-11-16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2024048</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
         <v>165</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="G49" s="5">
-        <v>40863</v>
+      <c r="G49" s="5" t="s">
+        <v>641</v>
       </c>
       <c r="H49" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-06-16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2024049</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
         <v>166</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G50" s="5">
-        <v>40710</v>
+      <c r="G50" s="5" t="s">
+        <v>642</v>
       </c>
       <c r="H50" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-08-05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>2024050</v>
       </c>
@@ -3487,22 +4127,26 @@
         <v>167</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G51" s="5">
-        <v>40395</v>
+      <c r="G51" s="5" t="s">
+        <v>643</v>
       </c>
       <c r="H51" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>2012-06-07</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2024051</v>
       </c>
@@ -3513,22 +4157,26 @@
         <v>168</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G52" s="5">
-        <v>41067</v>
+      <c r="G52" s="5" t="s">
+        <v>644</v>
       </c>
       <c r="H52" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-08-24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2024052</v>
       </c>
@@ -3539,22 +4187,26 @@
         <v>169</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G53" s="5">
-        <v>40779</v>
+      <c r="G53" s="5" t="s">
+        <v>645</v>
       </c>
       <c r="H53" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-09-07</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>2024053</v>
       </c>
@@ -3565,22 +4217,23 @@
         <v>170</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G54" s="5">
-        <v>40428</v>
-      </c>
-      <c r="H54" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G54" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-08-03</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>2024054</v>
       </c>
@@ -3588,97 +4241,116 @@
         <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G55" s="5">
-        <v>40393</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G55" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-05-16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>2024055</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G56" s="5">
-        <v>40679</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G56" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="H56" t="s">
+        <v>217</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-08-30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>2024056</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G57" s="5">
-        <v>40785</v>
+      <c r="G57" s="5" t="s">
+        <v>649</v>
       </c>
       <c r="H57" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-11-26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2024057</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G58" s="5">
-        <v>40508</v>
+        <v>254</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>650</v>
       </c>
       <c r="H58" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-06-29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>2024058</v>
       </c>
@@ -3686,25 +4358,29 @@
         <v>220</v>
       </c>
       <c r="C59" t="s">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="G59" s="5">
-        <v>40358</v>
+      <c r="G59" s="5" t="s">
+        <v>651</v>
       </c>
       <c r="H59" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59" t="str">
+        <f t="shared" si="0"/>
+        <v>2012-07-19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>2024059</v>
       </c>
@@ -3712,25 +4388,29 @@
         <v>221</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G60" s="5">
-        <v>41109</v>
+      <c r="G60" s="5" t="s">
+        <v>652</v>
       </c>
       <c r="H60" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-03-11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>2024060</v>
       </c>
@@ -3741,22 +4421,26 @@
         <v>239</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G61" s="5">
-        <v>40248</v>
+      <c r="G61" s="5" t="s">
+        <v>653</v>
       </c>
       <c r="H61" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-01-21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>2024061</v>
       </c>
@@ -3767,74 +4451,86 @@
         <v>240</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G62" s="5">
-        <v>40564</v>
+      <c r="G62" s="5" t="s">
+        <v>654</v>
       </c>
       <c r="H62" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>2012-09-29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>2024062</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>224</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
         <v>241</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G63" s="5">
-        <v>41181</v>
+      <c r="G63" s="5" t="s">
+        <v>655</v>
       </c>
       <c r="H63" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-01-02</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2024063</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="C64" t="s">
         <v>242</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G64" s="5">
-        <v>40545</v>
+      <c r="G64" s="5" t="s">
+        <v>656</v>
       </c>
       <c r="H64" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-01-04</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>2024064</v>
       </c>
@@ -3845,22 +4541,26 @@
         <v>243</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G65" s="5">
-        <v>40547</v>
+      <c r="G65" s="5" t="s">
+        <v>657</v>
       </c>
       <c r="H65" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65" t="str">
+        <f t="shared" si="0"/>
+        <v>2012-08-23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>2024065</v>
       </c>
@@ -3868,25 +4568,29 @@
         <v>226</v>
       </c>
       <c r="C66" t="s">
-        <v>244</v>
+        <v>23</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G66" s="5">
-        <v>41144</v>
+      <c r="G66" s="5" t="s">
+        <v>658</v>
       </c>
       <c r="H66" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-12-11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>2024066</v>
       </c>
@@ -3894,25 +4598,29 @@
         <v>227</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G67" s="5">
-        <v>40523</v>
+      <c r="G67" s="5" t="s">
+        <v>659</v>
       </c>
       <c r="H67" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67" t="str">
+        <f t="shared" ref="I67:I130" si="1">TEXT(G67,"yyyy-mm-dd")</f>
+        <v>2010-04-23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>2024067</v>
       </c>
@@ -3926,19 +4634,23 @@
         <v>10</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G68" s="5">
-        <v>40291</v>
+      <c r="G68" s="5" t="s">
+        <v>660</v>
       </c>
       <c r="H68" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-04-19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>2024068</v>
       </c>
@@ -3949,71 +4661,83 @@
         <v>246</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="G69" s="5">
-        <v>40652</v>
+      <c r="G69" s="5" t="s">
+        <v>661</v>
       </c>
       <c r="H69" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-03-10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>2024069</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>230</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="G70" s="5">
-        <v>40612</v>
-      </c>
-      <c r="H70" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G70" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="1"/>
+        <v>2012-05-26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>2024070</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G71" s="5">
-        <v>41055</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G71" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="H71" t="s">
+        <v>287</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-12-07</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>2024071</v>
       </c>
@@ -4024,22 +4748,26 @@
         <v>248</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G72" s="5">
-        <v>40519</v>
+      <c r="G72" s="5" t="s">
+        <v>664</v>
       </c>
       <c r="H72" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-11-14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>2024072</v>
       </c>
@@ -4047,25 +4775,29 @@
         <v>232</v>
       </c>
       <c r="C73" t="s">
-        <v>249</v>
+        <v>148</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G73" s="5">
-        <v>40861</v>
+      <c r="G73" s="5" t="s">
+        <v>665</v>
       </c>
       <c r="H73" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73" t="str">
+        <f t="shared" si="1"/>
+        <v>2012-06-21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>2024073</v>
       </c>
@@ -4073,25 +4805,29 @@
         <v>233</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>249</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="G74" s="5">
-        <v>41081</v>
+      <c r="G74" s="5" t="s">
+        <v>666</v>
       </c>
       <c r="H74" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-12-21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>2024074</v>
       </c>
@@ -4102,22 +4838,26 @@
         <v>250</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G75" s="5">
-        <v>40533</v>
+      <c r="G75" s="5" t="s">
+        <v>667</v>
       </c>
       <c r="H75" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-06-11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>2024075</v>
       </c>
@@ -4128,100 +4868,116 @@
         <v>251</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G76" s="5">
-        <v>40705</v>
+      <c r="G76" s="5" t="s">
+        <v>646</v>
       </c>
       <c r="H76" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-08-03</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>2024076</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="C77" t="s">
         <v>252</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="G77" s="5">
-        <v>40393</v>
+      <c r="G77" s="5" t="s">
+        <v>668</v>
       </c>
       <c r="H77" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-10-06</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>2024077</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="C78" t="s">
         <v>253</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="G78" s="5">
-        <v>40457</v>
+      <c r="G78" s="5" t="s">
+        <v>669</v>
       </c>
       <c r="H78" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-03-30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>2024078</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="C79" t="s">
-        <v>254</v>
+        <v>313</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G79" s="5">
-        <v>40267</v>
+        <v>340</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>670</v>
       </c>
       <c r="H79" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-07-31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>2024079</v>
       </c>
@@ -4232,74 +4988,86 @@
         <v>314</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="G80" s="5">
-        <v>40755</v>
+      <c r="G80" s="5" t="s">
+        <v>671</v>
       </c>
       <c r="H80" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-11-19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>2024080</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>297</v>
+        <v>21</v>
       </c>
       <c r="C81" t="s">
         <v>315</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="G81" s="5">
-        <v>40501</v>
+      <c r="G81" s="5" t="s">
+        <v>672</v>
       </c>
       <c r="H81" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-11-17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>2024081</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>22</v>
+        <v>297</v>
       </c>
       <c r="C82" t="s">
         <v>316</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="G82" s="5">
-        <v>40499</v>
+      <c r="G82" s="5" t="s">
+        <v>673</v>
       </c>
       <c r="H82" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82" t="str">
+        <f t="shared" si="1"/>
+        <v>2009-08-28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>2024082</v>
       </c>
@@ -4310,100 +5078,116 @@
         <v>317</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G83" s="5">
-        <v>40053</v>
+      <c r="G83" s="5" t="s">
+        <v>674</v>
       </c>
       <c r="H83" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-01-15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>2024083</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>299</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
         <v>318</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="G84" s="5">
-        <v>40193</v>
+      <c r="G84" s="5" t="s">
+        <v>675</v>
       </c>
       <c r="H84" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84" t="str">
+        <f t="shared" si="1"/>
+        <v>2012-02-12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>2024084</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C85" t="s">
         <v>319</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="G85" s="5">
-        <v>40951</v>
+      <c r="G85" s="5" t="s">
+        <v>676</v>
       </c>
       <c r="H85" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-05-15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>2024085</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>27</v>
+        <v>299</v>
       </c>
       <c r="C86" t="s">
         <v>320</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G86" s="5">
-        <v>40678</v>
+      <c r="G86" s="5" t="s">
+        <v>677</v>
       </c>
       <c r="H86" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-11-27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>2024086</v>
       </c>
@@ -4414,22 +5198,26 @@
         <v>321</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="G87" s="5">
-        <v>40874</v>
+      <c r="G87" s="5" t="s">
+        <v>610</v>
       </c>
       <c r="H87" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-07-29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>2024087</v>
       </c>
@@ -4440,22 +5228,26 @@
         <v>322</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G88" s="5">
-        <v>40388</v>
+      <c r="G88" s="5" t="s">
+        <v>678</v>
       </c>
       <c r="H88" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-02-17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>2024088</v>
       </c>
@@ -4466,22 +5258,26 @@
         <v>323</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="G89" s="5">
-        <v>40226</v>
+      <c r="G89" s="5" t="s">
+        <v>679</v>
       </c>
       <c r="H89" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-01-16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>2024089</v>
       </c>
@@ -4492,22 +5288,23 @@
         <v>324</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G90" s="5">
-        <v>40559</v>
-      </c>
-      <c r="H90" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G90" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-08-10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>2024090</v>
       </c>
@@ -4518,19 +5315,26 @@
         <v>325</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G91" s="5">
-        <v>40765</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G91" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="H91" t="s">
+        <v>316</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-09-23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>2024091</v>
       </c>
@@ -4541,22 +5345,26 @@
         <v>326</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="G92" s="5">
-        <v>40809</v>
+      <c r="G92" s="5" t="s">
+        <v>682</v>
       </c>
       <c r="H92" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="1"/>
+        <v>2012-03-05</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>2024092</v>
       </c>
@@ -4567,79 +5375,91 @@
         <v>327</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="G93" s="5">
-        <v>40973</v>
+      <c r="G93" s="5" t="s">
+        <v>683</v>
       </c>
       <c r="H93" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-08-05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>2024093</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>307</v>
+        <v>38</v>
       </c>
       <c r="C94" t="s">
         <v>328</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G94" s="5">
-        <v>40760</v>
+      <c r="G94" s="5" t="s">
+        <v>684</v>
       </c>
       <c r="H94" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-01-07</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>2024094</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="C95" t="s">
         <v>329</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G95" s="5">
-        <v>40550</v>
+      <c r="G95" s="5" t="s">
+        <v>685</v>
       </c>
       <c r="H95" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-12-08</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>2024095</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>308</v>
+        <v>34</v>
       </c>
       <c r="C96" t="s">
         <v>330</v>
@@ -4648,117 +5468,137 @@
         <v>10</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="G96" s="5">
-        <v>40520</v>
+      <c r="G96" s="5" t="s">
+        <v>686</v>
       </c>
       <c r="H96" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96" t="str">
+        <f t="shared" si="1"/>
+        <v>2012-05-12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>2024096</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C97" t="s">
         <v>331</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="G97" s="5">
-        <v>41041</v>
-      </c>
-      <c r="H97" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G97" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-04-14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>2024097</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>37</v>
+        <v>308</v>
       </c>
       <c r="C98" t="s">
         <v>332</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G98" s="5">
-        <v>40647</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G98" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-03-22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>2024098</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C99" t="s">
         <v>333</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="G99" s="5">
-        <v>40624</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G99" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="H99" t="s">
+        <v>380</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="1"/>
+        <v>2009-12-30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>2024099</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C100" t="s">
         <v>334</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="G100" s="5">
-        <v>40177</v>
+      <c r="G100" s="5" t="s">
+        <v>690</v>
       </c>
       <c r="H100" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-11-03</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>2024100</v>
       </c>
@@ -4769,100 +5609,116 @@
         <v>335</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="G101" s="5">
-        <v>40485</v>
+      <c r="G101" s="5" t="s">
+        <v>691</v>
       </c>
       <c r="H101" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-03-19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>2024101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C102" t="s">
         <v>336</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="G102" s="5">
-        <v>40256</v>
+      <c r="G102" s="5" t="s">
+        <v>692</v>
       </c>
       <c r="H102" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-01-08</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>2024102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>306</v>
+        <v>38</v>
       </c>
       <c r="C103" t="s">
         <v>337</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="G103" s="5">
-        <v>40551</v>
+      <c r="G103" s="5" t="s">
+        <v>693</v>
       </c>
       <c r="H103" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-11-14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>2024103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="C104" t="s">
         <v>338</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="G104" s="5">
-        <v>40496</v>
+      <c r="G104" s="5" t="s">
+        <v>694</v>
       </c>
       <c r="H104" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104" t="str">
+        <f t="shared" si="1"/>
+        <v>2012-12-01</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>2024104</v>
       </c>
@@ -4873,100 +5729,113 @@
         <v>339</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G105" s="5">
-        <v>41244</v>
+      <c r="G105" s="5" t="s">
+        <v>695</v>
       </c>
       <c r="H105" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-05-12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>2024105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
       <c r="C106" t="s">
-        <v>340</v>
+        <v>411</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="G106" s="5">
-        <v>40310</v>
+        <v>440</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>696</v>
       </c>
       <c r="H106" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-10-20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>2024106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>388</v>
+        <v>29</v>
       </c>
       <c r="C107" t="s">
-        <v>412</v>
+        <v>200</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="G107" s="5">
-        <v>40471</v>
+      <c r="G107" s="5" t="s">
+        <v>697</v>
       </c>
       <c r="H107" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107" t="str">
+        <f t="shared" si="1"/>
+        <v>2012-03-01</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>2024107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>30</v>
+        <v>388</v>
       </c>
       <c r="C108" t="s">
-        <v>201</v>
+        <v>412</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="G108" s="5">
-        <v>40969</v>
-      </c>
-      <c r="H108" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G108" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-05-19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2024108</v>
       </c>
@@ -4977,19 +5846,26 @@
         <v>413</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="G109" s="5">
-        <v>40317</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G109" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="H109" t="s">
+        <v>471</v>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" si="1"/>
+        <v>2024-12-25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>2024109</v>
       </c>
@@ -5000,22 +5876,26 @@
         <v>414</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="G110" s="5">
-        <v>45651</v>
+      <c r="G110" s="5" t="s">
+        <v>618</v>
       </c>
       <c r="H110" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-03-27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>2024110</v>
       </c>
@@ -5026,22 +5906,26 @@
         <v>415</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="G111" s="5">
-        <v>40629</v>
+      <c r="G111" s="5" t="s">
+        <v>700</v>
       </c>
       <c r="H111" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111" t="str">
+        <f t="shared" si="1"/>
+        <v>2009-11-13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>2024111</v>
       </c>
@@ -5052,22 +5936,26 @@
         <v>416</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="G112" s="5">
-        <v>40130</v>
+      <c r="G112" s="5" t="s">
+        <v>701</v>
       </c>
       <c r="H112" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-08-16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>2024112</v>
       </c>
@@ -5078,74 +5966,86 @@
         <v>417</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="G113" s="5">
-        <v>40771</v>
+      <c r="G113" s="5" t="s">
+        <v>702</v>
       </c>
       <c r="H113" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-12-22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>2024113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>394</v>
+        <v>27</v>
       </c>
       <c r="C114" t="s">
         <v>418</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="G114" s="5">
-        <v>40534</v>
+      <c r="G114" s="5" t="s">
+        <v>703</v>
       </c>
       <c r="H114" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114" t="str">
+        <f t="shared" si="1"/>
+        <v>2012-03-18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>2024114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>28</v>
+        <v>394</v>
       </c>
       <c r="C115" t="s">
         <v>419</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G115" s="5">
-        <v>40986</v>
+      <c r="G115" s="5" t="s">
+        <v>704</v>
       </c>
       <c r="H115" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115" t="str">
+        <f t="shared" si="1"/>
+        <v>2012-07-29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>2024115</v>
       </c>
@@ -5156,22 +6056,26 @@
         <v>420</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="G116" s="5">
-        <v>41119</v>
+      <c r="G116" s="5" t="s">
+        <v>705</v>
       </c>
       <c r="H116" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-10-31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>2024116</v>
       </c>
@@ -5182,22 +6086,26 @@
         <v>421</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="G117" s="5">
-        <v>40482</v>
+      <c r="G117" s="5" t="s">
+        <v>706</v>
       </c>
       <c r="H117" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-09-30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>2024117</v>
       </c>
@@ -5208,22 +6116,26 @@
         <v>422</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="G118" s="5">
-        <v>40451</v>
+      <c r="G118" s="5" t="s">
+        <v>707</v>
       </c>
       <c r="H118" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118" t="str">
+        <f t="shared" si="1"/>
+        <v>2012-11-30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>2024118</v>
       </c>
@@ -5234,22 +6146,26 @@
         <v>423</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="G119" s="5">
-        <v>41243</v>
+      <c r="G119" s="5" t="s">
+        <v>708</v>
       </c>
       <c r="H119" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119" t="str">
+        <f t="shared" si="1"/>
+        <v>2012-07-15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>2024119</v>
       </c>
@@ -5260,22 +6176,26 @@
         <v>424</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="G120" s="5">
-        <v>41105</v>
+      <c r="G120" s="5" t="s">
+        <v>709</v>
       </c>
       <c r="H120" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-09-22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>2024120</v>
       </c>
@@ -5286,22 +6206,26 @@
         <v>425</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="G121" s="5">
-        <v>40443</v>
+      <c r="G121" s="5" t="s">
+        <v>710</v>
       </c>
       <c r="H121" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-01-12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>2024121</v>
       </c>
@@ -5315,71 +6239,83 @@
         <v>10</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="G122" s="5">
-        <v>40555</v>
+      <c r="G122" s="5" t="s">
+        <v>711</v>
       </c>
       <c r="H122" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-07-09</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>2024122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>402</v>
+        <v>230</v>
       </c>
       <c r="C123" t="s">
         <v>427</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="G123" s="5">
-        <v>40733</v>
+      <c r="G123" s="5" t="s">
+        <v>712</v>
       </c>
       <c r="H123" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I123" t="str">
+        <f t="shared" si="1"/>
+        <v>2009-12-19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>2024123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>231</v>
+        <v>402</v>
       </c>
       <c r="C124" t="s">
         <v>428</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="G124" s="5">
-        <v>40166</v>
+      <c r="G124" s="5" t="s">
+        <v>713</v>
       </c>
       <c r="H124" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+      <c r="I124" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-10-12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>2024124</v>
       </c>
@@ -5390,22 +6326,23 @@
         <v>429</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="G125" s="5">
-        <v>40828</v>
-      </c>
-      <c r="H125" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G125" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="I125" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-10-14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>2024125</v>
       </c>
@@ -5416,19 +6353,26 @@
         <v>430</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="G126" s="5">
-        <v>40830</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G126" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="H126" t="s">
+        <v>486</v>
+      </c>
+      <c r="I126" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-09-14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>2024126</v>
       </c>
@@ -5439,22 +6383,26 @@
         <v>431</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="G127" s="5">
-        <v>40435</v>
+        <v>127</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>622</v>
       </c>
       <c r="H127" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I127" t="str">
+        <f t="shared" si="1"/>
+        <v>2012-04-05</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>2024127</v>
       </c>
@@ -5465,22 +6413,26 @@
         <v>432</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G128" s="5">
-        <v>41004</v>
+        <v>461</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>716</v>
       </c>
       <c r="H128" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-12-12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>2024128</v>
       </c>
@@ -5491,22 +6443,26 @@
         <v>433</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="G129" s="5">
-        <v>40889</v>
+      <c r="G129" s="5" t="s">
+        <v>717</v>
       </c>
       <c r="H129" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-08-26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>2024129</v>
       </c>
@@ -5517,126 +6473,146 @@
         <v>434</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="G130" s="5">
-        <v>40416</v>
+      <c r="G130" s="5" t="s">
+        <v>718</v>
       </c>
       <c r="H130" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-11-01</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>2024130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>409</v>
+        <v>33</v>
       </c>
       <c r="C131" t="s">
         <v>435</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="G131" s="5">
-        <v>40483</v>
+      <c r="G131" s="5" t="s">
+        <v>719</v>
       </c>
       <c r="H131" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131" t="str">
+        <f t="shared" ref="I131:I164" si="2">TEXT(G131,"yyyy-mm-dd")</f>
+        <v>2011-09-03</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>2024131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C132" t="s">
         <v>436</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="G132" s="5">
-        <v>40789</v>
+      <c r="G132" s="5" t="s">
+        <v>720</v>
       </c>
       <c r="H132" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-09-20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>2024132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C133" t="s">
         <v>437</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="G133" s="5">
-        <v>41172</v>
+      <c r="G133" s="5" t="s">
+        <v>638</v>
       </c>
       <c r="H133" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133" t="str">
+        <f t="shared" si="2"/>
+        <v>2010-12-20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>2024133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>29</v>
+        <v>409</v>
       </c>
       <c r="C134" t="s">
         <v>438</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="G134" s="5">
-        <v>40532</v>
+      <c r="G134" s="5" t="s">
+        <v>680</v>
       </c>
       <c r="H134" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I134" t="str">
+        <f t="shared" si="2"/>
+        <v>2011-08-10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>2024134</v>
       </c>
@@ -5647,48 +6623,56 @@
         <v>439</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="G135" s="5">
-        <v>40765</v>
+      <c r="G135" s="5" t="s">
+        <v>721</v>
       </c>
       <c r="H135" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I135" t="str">
+        <f t="shared" si="2"/>
+        <v>2010-10-25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>2024135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>411</v>
+        <v>496</v>
       </c>
       <c r="C136" t="s">
-        <v>440</v>
+        <v>521</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="G136" s="5">
-        <v>40476</v>
+        <v>544</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>722</v>
       </c>
       <c r="H136" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" si="2"/>
+        <v>2010-12-03</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>2024136</v>
       </c>
@@ -5699,22 +6683,26 @@
         <v>522</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="G137" s="5">
-        <v>40515</v>
+      <c r="G137" s="5" t="s">
+        <v>723</v>
       </c>
       <c r="H137" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-01-05</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>2024137</v>
       </c>
@@ -5725,22 +6713,26 @@
         <v>523</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="G138" s="5">
-        <v>40913</v>
+      <c r="G138" s="5" t="s">
+        <v>724</v>
       </c>
       <c r="H138" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I138" t="str">
+        <f t="shared" si="2"/>
+        <v>2011-11-25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>2024138</v>
       </c>
@@ -5751,22 +6743,23 @@
         <v>524</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="G139" s="5">
-        <v>40872</v>
-      </c>
-      <c r="H139" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G139" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="I139" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-03-21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>2024139</v>
       </c>
@@ -5777,19 +6770,26 @@
         <v>525</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="G140" s="5">
-        <v>40989</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G140" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="H140" t="s">
+        <v>575</v>
+      </c>
+      <c r="I140" t="str">
+        <f t="shared" si="2"/>
+        <v>2010-12-17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>2024140</v>
       </c>
@@ -5797,77 +6797,89 @@
         <v>501</v>
       </c>
       <c r="C141" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G141" s="5">
-        <v>40529</v>
+      <c r="G141" s="5" t="s">
+        <v>727</v>
       </c>
       <c r="H141" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I141" t="str">
+        <f t="shared" si="2"/>
+        <v>2024-06-23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>2024141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>502</v>
+        <v>39</v>
       </c>
       <c r="C142" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="G142" s="5">
-        <v>45466</v>
+      <c r="G142" s="5" t="s">
+        <v>688</v>
       </c>
       <c r="H142" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I142" t="str">
+        <f t="shared" si="2"/>
+        <v>2011-03-22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>2024142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>40</v>
+        <v>502</v>
       </c>
       <c r="C143" t="s">
         <v>527</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="G143" s="5">
-        <v>40624</v>
+      <c r="G143" s="5" t="s">
+        <v>638</v>
       </c>
       <c r="H143" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I143" t="str">
+        <f t="shared" si="2"/>
+        <v>2010-12-20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>2024143</v>
       </c>
@@ -5875,25 +6887,29 @@
         <v>503</v>
       </c>
       <c r="C144" t="s">
-        <v>528</v>
+        <v>7</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F144" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="G144" s="5">
-        <v>40532</v>
+      <c r="G144" s="5" t="s">
+        <v>728</v>
       </c>
       <c r="H144" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I144" t="str">
+        <f t="shared" si="2"/>
+        <v>2011-03-19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>2024144</v>
       </c>
@@ -5901,25 +6917,29 @@
         <v>504</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>528</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="G145" s="5">
-        <v>40621</v>
+      <c r="G145" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="H145" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I145" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-11-04</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>2024145</v>
       </c>
@@ -5930,22 +6950,26 @@
         <v>529</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="G146" s="5">
-        <v>41217</v>
+      <c r="G146" s="5" t="s">
+        <v>730</v>
       </c>
       <c r="H146" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146" t="str">
+        <f t="shared" si="2"/>
+        <v>2010-10-19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>2024146</v>
       </c>
@@ -5956,22 +6980,26 @@
         <v>530</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="G147" s="5">
-        <v>40470</v>
+      <c r="G147" s="5" t="s">
+        <v>731</v>
       </c>
       <c r="H147" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I147" t="str">
+        <f t="shared" si="2"/>
+        <v>2010-09-21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>2024147</v>
       </c>
@@ -5982,22 +7010,26 @@
         <v>531</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="G148" s="5">
-        <v>40442</v>
+      <c r="G148" s="5" t="s">
+        <v>732</v>
       </c>
       <c r="H148" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I148" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-01-15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>2024148</v>
       </c>
@@ -6008,22 +7040,26 @@
         <v>532</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="G149" s="5">
-        <v>40923</v>
+      <c r="G149" s="5" t="s">
+        <v>733</v>
       </c>
       <c r="H149" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-04-23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>2024149</v>
       </c>
@@ -6034,22 +7070,26 @@
         <v>533</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="G150" s="5">
-        <v>41022</v>
+      <c r="G150" s="5" t="s">
+        <v>734</v>
       </c>
       <c r="H150" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I150" t="str">
+        <f t="shared" si="2"/>
+        <v>2010-11-15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>2024150</v>
       </c>
@@ -6057,25 +7097,29 @@
         <v>510</v>
       </c>
       <c r="C151" t="s">
-        <v>534</v>
+        <v>46</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="G151" s="5">
-        <v>40497</v>
+      <c r="G151" s="5" t="s">
+        <v>735</v>
       </c>
       <c r="H151" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I151" t="str">
+        <f t="shared" si="2"/>
+        <v>2010-10-30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>2024151</v>
       </c>
@@ -6083,25 +7127,29 @@
         <v>511</v>
       </c>
       <c r="C152" t="s">
-        <v>47</v>
+        <v>534</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="G152" s="5">
-        <v>40481</v>
+      <c r="G152" s="5" t="s">
+        <v>736</v>
       </c>
       <c r="H152" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I152" t="str">
+        <f t="shared" si="2"/>
+        <v>2010-05-17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>2024152</v>
       </c>
@@ -6109,25 +7157,29 @@
         <v>512</v>
       </c>
       <c r="C153" t="s">
-        <v>535</v>
+        <v>18</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="G153" s="5">
-        <v>40315</v>
+      <c r="G153" s="5" t="s">
+        <v>737</v>
       </c>
       <c r="H153" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I153" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-08-06</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>2024153</v>
       </c>
@@ -6135,25 +7187,29 @@
         <v>513</v>
       </c>
       <c r="C154" t="s">
-        <v>19</v>
+        <v>535</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="G154" s="5">
-        <v>41127</v>
+      <c r="G154" s="5" t="s">
+        <v>653</v>
       </c>
       <c r="H154" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I154" t="str">
+        <f t="shared" si="2"/>
+        <v>2011-01-21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>2024154</v>
       </c>
@@ -6164,22 +7220,23 @@
         <v>536</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="G155" s="5">
-        <v>40564</v>
-      </c>
-      <c r="H155" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G155" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="I155" t="str">
+        <f t="shared" si="2"/>
+        <v>2011-05-16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>2024155</v>
       </c>
@@ -6190,19 +7247,26 @@
         <v>537</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="G156" s="5">
-        <v>40679</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G156" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="H156" t="s">
+        <v>590</v>
+      </c>
+      <c r="I156" t="str">
+        <f t="shared" si="2"/>
+        <v>2011-02-02</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>2024156</v>
       </c>
@@ -6213,22 +7277,23 @@
         <v>538</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="G157" s="5">
-        <v>40576</v>
-      </c>
-      <c r="H157" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G157" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="I157" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-05-30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>2024157</v>
       </c>
@@ -6239,97 +7304,116 @@
         <v>539</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="G158" s="5">
-        <v>41059</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G158" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="H158" t="s">
+        <v>591</v>
+      </c>
+      <c r="I158" t="str">
+        <f t="shared" si="2"/>
+        <v>2012-01-21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>2024158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>518</v>
+        <v>24</v>
       </c>
       <c r="C159" t="s">
         <v>540</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="G159" s="5">
-        <v>40929</v>
+      <c r="G159" s="5" t="s">
+        <v>741</v>
       </c>
       <c r="H159" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="I159" t="str">
+        <f t="shared" si="2"/>
+        <v>2011-05-20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>2024159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>25</v>
+        <v>518</v>
       </c>
       <c r="C160" t="s">
         <v>541</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="G160" s="5">
-        <v>40683</v>
+      <c r="G160" s="5" t="s">
+        <v>742</v>
       </c>
       <c r="H160" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+      <c r="I160" t="str">
+        <f t="shared" si="2"/>
+        <v>2010-11-08</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>2024160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C161" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="G161" s="5">
-        <v>40490</v>
+        <v>568</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>742</v>
       </c>
       <c r="H161" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+      <c r="I161" t="str">
+        <f t="shared" si="2"/>
+        <v>2010-11-08</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>2024161</v>
       </c>
@@ -6340,22 +7424,26 @@
         <v>542</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="G162" s="5">
-        <v>40490</v>
+      <c r="G162" s="5" t="s">
+        <v>656</v>
       </c>
       <c r="H162" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I162" t="str">
+        <f t="shared" si="2"/>
+        <v>2011-01-04</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>2024162</v>
       </c>
@@ -6363,74 +7451,56 @@
         <v>520</v>
       </c>
       <c r="C163" t="s">
-        <v>543</v>
+        <v>40</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="G163" s="5">
-        <v>40547</v>
+      <c r="G163" s="5" t="s">
+        <v>743</v>
       </c>
       <c r="H163" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I163" t="str">
+        <f t="shared" si="2"/>
+        <v>2011-12-15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>2024163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>521</v>
+        <v>43</v>
       </c>
       <c r="C164" t="s">
-        <v>41</v>
+        <v>543</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="G164" s="5">
-        <v>40892</v>
+      <c r="G164" s="5" t="s">
+        <v>744</v>
       </c>
       <c r="H164" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
-        <v>2024164</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C165" t="s">
-        <v>544</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="G165" s="5">
-        <v>40350</v>
-      </c>
-      <c r="H165" t="s">
-        <v>596</v>
+      <c r="I164" t="str">
+        <f t="shared" si="2"/>
+        <v>2010-06-21</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/students.xlsx
+++ b/public/files/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\projects\api\tranquillity\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03578E6-3C3A-4E31-AFCE-05571A502862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B7875F-A451-473B-A147-4383BC01F647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="599">
   <si>
     <t>id</t>
   </si>
@@ -1271,6 +1271,567 @@
   </si>
   <si>
     <t>0545477322</t>
+  </si>
+  <si>
+    <t>2012-02-29</t>
+  </si>
+  <si>
+    <t>2013-07-16</t>
+  </si>
+  <si>
+    <t>2011-10-20</t>
+  </si>
+  <si>
+    <t>2012-11-03</t>
+  </si>
+  <si>
+    <t>2011-10-02</t>
+  </si>
+  <si>
+    <t>2012-02-02</t>
+  </si>
+  <si>
+    <t>2012-04-08</t>
+  </si>
+  <si>
+    <t>2011-12-12</t>
+  </si>
+  <si>
+    <t>2012-06-09</t>
+  </si>
+  <si>
+    <t>2011-07-03</t>
+  </si>
+  <si>
+    <t>2013-07-23</t>
+  </si>
+  <si>
+    <t>2012-06-13</t>
+  </si>
+  <si>
+    <t>2013-04-12</t>
+  </si>
+  <si>
+    <t>2012-10-15</t>
+  </si>
+  <si>
+    <t>2013-11-08</t>
+  </si>
+  <si>
+    <t>2012-09-05</t>
+  </si>
+  <si>
+    <t>2012-07-08</t>
+  </si>
+  <si>
+    <t>2012-04-24</t>
+  </si>
+  <si>
+    <t>2011-09-12</t>
+  </si>
+  <si>
+    <t>2013-08-22</t>
+  </si>
+  <si>
+    <t>2012-04-13</t>
+  </si>
+  <si>
+    <t>2012-10-27</t>
+  </si>
+  <si>
+    <t>2012-08-14</t>
+  </si>
+  <si>
+    <t>2013-05-26</t>
+  </si>
+  <si>
+    <t>2013-11-16</t>
+  </si>
+  <si>
+    <t>2011-12-04</t>
+  </si>
+  <si>
+    <t>2012-11-17</t>
+  </si>
+  <si>
+    <t>2013-02-22</t>
+  </si>
+  <si>
+    <t>2011-10-24</t>
+  </si>
+  <si>
+    <t>2013-09-08</t>
+  </si>
+  <si>
+    <t>2012-06-24</t>
+  </si>
+  <si>
+    <t>2012-04-02</t>
+  </si>
+  <si>
+    <t>2012-01-20</t>
+  </si>
+  <si>
+    <t>2012-02-12</t>
+  </si>
+  <si>
+    <t>2012-05-07</t>
+  </si>
+  <si>
+    <t>2012-01-18</t>
+  </si>
+  <si>
+    <t>2012-07-01</t>
+  </si>
+  <si>
+    <t>2011-01-07</t>
+  </si>
+  <si>
+    <t>2011-04-18</t>
+  </si>
+  <si>
+    <t>2012-01-30</t>
+  </si>
+  <si>
+    <t>2011-04-27</t>
+  </si>
+  <si>
+    <t>2011-11-29</t>
+  </si>
+  <si>
+    <t>2012-03-13</t>
+  </si>
+  <si>
+    <t>2012-03-30</t>
+  </si>
+  <si>
+    <t>2011-07-06</t>
+  </si>
+  <si>
+    <t>2011-10-17</t>
+  </si>
+  <si>
+    <t>2011-01-01</t>
+  </si>
+  <si>
+    <t>2011-01-19</t>
+  </si>
+  <si>
+    <t>2012-07-17</t>
+  </si>
+  <si>
+    <t>2011-03-11</t>
+  </si>
+  <si>
+    <t>2011-06-20</t>
+  </si>
+  <si>
+    <t>2011-11-15</t>
+  </si>
+  <si>
+    <t>2011-09-21</t>
+  </si>
+  <si>
+    <t>2012-07-28</t>
+  </si>
+  <si>
+    <t>2011-12-14</t>
+  </si>
+  <si>
+    <t>2011-12-23</t>
+  </si>
+  <si>
+    <t>2012-03-03</t>
+  </si>
+  <si>
+    <t>2012-02-23</t>
+  </si>
+  <si>
+    <t>2011-04-13</t>
+  </si>
+  <si>
+    <t>2011-08-31</t>
+  </si>
+  <si>
+    <t>2011-09-27</t>
+  </si>
+  <si>
+    <t>2011-11-24</t>
+  </si>
+  <si>
+    <t>2011-08-12</t>
+  </si>
+  <si>
+    <t>2013-01-22</t>
+  </si>
+  <si>
+    <t>2013-03-12</t>
+  </si>
+  <si>
+    <t>2012-11-22</t>
+  </si>
+  <si>
+    <t>2012-02-25</t>
+  </si>
+  <si>
+    <t>2013-08-20</t>
+  </si>
+  <si>
+    <t>2024-02-28</t>
+  </si>
+  <si>
+    <t>2011-09-26</t>
+  </si>
+  <si>
+    <t>2012-11-29</t>
+  </si>
+  <si>
+    <t>2012-07-31</t>
+  </si>
+  <si>
+    <t>2012-04-05</t>
+  </si>
+  <si>
+    <t>2013-12-25</t>
+  </si>
+  <si>
+    <t>2012-09-21</t>
+  </si>
+  <si>
+    <t>2011-10-11</t>
+  </si>
+  <si>
+    <t>2013-10-16</t>
+  </si>
+  <si>
+    <t>2011-11-23</t>
+  </si>
+  <si>
+    <t>2011-09-25</t>
+  </si>
+  <si>
+    <t>2012-02-18</t>
+  </si>
+  <si>
+    <t>2012-01-24</t>
+  </si>
+  <si>
+    <t>2012-10-13</t>
+  </si>
+  <si>
+    <t>2013-09-27</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>2010-12-30</t>
+  </si>
+  <si>
+    <t>2013-03-07</t>
+  </si>
+  <si>
+    <t>2011-06-24</t>
+  </si>
+  <si>
+    <t>2012-07-05</t>
+  </si>
+  <si>
+    <t>2013-03-05</t>
+  </si>
+  <si>
+    <t>2013-03-20</t>
+  </si>
+  <si>
+    <t>2012-05-14</t>
+  </si>
+  <si>
+    <t>2011-12-05</t>
+  </si>
+  <si>
+    <t>2011-08-27</t>
+  </si>
+  <si>
+    <t>2011-02-11</t>
+  </si>
+  <si>
+    <t>2012-07-19</t>
+  </si>
+  <si>
+    <t>2011-04-11</t>
+  </si>
+  <si>
+    <t>2010-11-16</t>
+  </si>
+  <si>
+    <t>2013-10-12</t>
+  </si>
+  <si>
+    <t>2012-05-21</t>
+  </si>
+  <si>
+    <t>2011-09-20</t>
+  </si>
+  <si>
+    <t>2013-01-03</t>
+  </si>
+  <si>
+    <t>2013-05-07</t>
+  </si>
+  <si>
+    <t>2012-03-05</t>
+  </si>
+  <si>
+    <t>2013-05-30</t>
+  </si>
+  <si>
+    <t>2012-08-19</t>
+  </si>
+  <si>
+    <t>2013-07-17</t>
+  </si>
+  <si>
+    <t>2012-10-21</t>
+  </si>
+  <si>
+    <t>2012-05-15</t>
+  </si>
+  <si>
+    <t>2013-03-22</t>
+  </si>
+  <si>
+    <t>2011-06-08</t>
+  </si>
+  <si>
+    <t>2012-12-02</t>
+  </si>
+  <si>
+    <t>2012-03-17</t>
+  </si>
+  <si>
+    <t>2025-05-31</t>
+  </si>
+  <si>
+    <t>2012-03-02</t>
+  </si>
+  <si>
+    <t>2013-05-05</t>
+  </si>
+  <si>
+    <t>2011-10-12</t>
+  </si>
+  <si>
+    <t>2012-08-24</t>
+  </si>
+  <si>
+    <t>2012-12-06</t>
+  </si>
+  <si>
+    <t>2011-05-30</t>
+  </si>
+  <si>
+    <t>2013-02-21</t>
+  </si>
+  <si>
+    <t>2011-06-03</t>
+  </si>
+  <si>
+    <t>2011-10-21</t>
+  </si>
+  <si>
+    <t>2013-05-18</t>
+  </si>
+  <si>
+    <t>2013-10-06</t>
+  </si>
+  <si>
+    <t>2013-12-07</t>
+  </si>
+  <si>
+    <t>2012-10-17</t>
+  </si>
+  <si>
+    <t>2012-01-13</t>
+  </si>
+  <si>
+    <t>2012-02-05</t>
+  </si>
+  <si>
+    <t>2013-03-14</t>
+  </si>
+  <si>
+    <t>2012-09-04</t>
+  </si>
+  <si>
+    <t>2012-10-18</t>
+  </si>
+  <si>
+    <t>2012-07-23</t>
+  </si>
+  <si>
+    <t>2013-04-05</t>
+  </si>
+  <si>
+    <t>2012-10-23</t>
+  </si>
+  <si>
+    <t>2013-01-18</t>
+  </si>
+  <si>
+    <t>2012-06-18</t>
+  </si>
+  <si>
+    <t>2013-11-15</t>
+  </si>
+  <si>
+    <t>2012-08-22</t>
+  </si>
+  <si>
+    <t>2011-06-16</t>
+  </si>
+  <si>
+    <t>2013-03-19</t>
+  </si>
+  <si>
+    <t>2011-12-15</t>
+  </si>
+  <si>
+    <t>2012-01-02</t>
+  </si>
+  <si>
+    <t>2013-09-02</t>
+  </si>
+  <si>
+    <t>2012-04-19</t>
+  </si>
+  <si>
+    <t>2012-01-04</t>
+  </si>
+  <si>
+    <t>2012-12-14</t>
+  </si>
+  <si>
+    <t>2012-11-13</t>
+  </si>
+  <si>
+    <t>2011-09-22</t>
+  </si>
+  <si>
+    <t>2012-12-04</t>
+  </si>
+  <si>
+    <t>2012-01-03</t>
+  </si>
+  <si>
+    <t>2013-02-26</t>
+  </si>
+  <si>
+    <t>2012-02-04</t>
+  </si>
+  <si>
+    <t>2012-11-20</t>
+  </si>
+  <si>
+    <t>2013-01-09</t>
+  </si>
+  <si>
+    <t>2013-09-06</t>
+  </si>
+  <si>
+    <t>2013-03-08</t>
+  </si>
+  <si>
+    <t>2012-02-17</t>
+  </si>
+  <si>
+    <t>2011-12-10</t>
+  </si>
+  <si>
+    <t>2012-01-12</t>
+  </si>
+  <si>
+    <t>2013-11-03</t>
+  </si>
+  <si>
+    <t>2012-06-04</t>
+  </si>
+  <si>
+    <t>2013-02-17</t>
+  </si>
+  <si>
+    <t>2012-05-27</t>
+  </si>
+  <si>
+    <t>2012-04-01</t>
+  </si>
+  <si>
+    <t>2012-08-11</t>
+  </si>
+  <si>
+    <t>2012-08-12</t>
+  </si>
+  <si>
+    <t>2011-10-27</t>
+  </si>
+  <si>
+    <t>2013-06-10</t>
+  </si>
+  <si>
+    <t>2012-04-10</t>
+  </si>
+  <si>
+    <t>2012-09-28</t>
+  </si>
+  <si>
+    <t>2012-01-25</t>
+  </si>
+  <si>
+    <t>2012-05-31</t>
+  </si>
+  <si>
+    <t>2012-08-05</t>
+  </si>
+  <si>
+    <t>2012-10-29</t>
+  </si>
+  <si>
+    <t>2013-02-14</t>
+  </si>
+  <si>
+    <t>2013-04-04</t>
+  </si>
+  <si>
+    <t>2013-11-02</t>
+  </si>
+  <si>
+    <t>2012-10-01</t>
+  </si>
+  <si>
+    <t>2013-11-06</t>
+  </si>
+  <si>
+    <t>2013-04-09</t>
+  </si>
+  <si>
+    <t>2013-09-04</t>
+  </si>
+  <si>
+    <t>2011-09-14</t>
+  </si>
+  <si>
+    <t>2011-11-09</t>
+  </si>
+  <si>
+    <t>2012-02-09</t>
+  </si>
+  <si>
+    <t>2011-01-24</t>
+  </si>
+  <si>
+    <t>2011-09-01</t>
+  </si>
+  <si>
+    <t>2013-12-12</t>
   </si>
 </sst>
 </file>
@@ -1608,9 +2169,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A205"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H137" sqref="H137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,8 +2233,8 @@
       <c r="F2" s="4">
         <v>5844406822</v>
       </c>
-      <c r="G2" s="5">
-        <v>40968</v>
+      <c r="G2" s="5" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1695,8 +2256,8 @@
       <c r="F3" s="4">
         <v>7354578523</v>
       </c>
-      <c r="G3" s="5">
-        <v>41471</v>
+      <c r="G3" s="5" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1718,8 +2279,8 @@
       <c r="F4" s="4">
         <v>6820203420</v>
       </c>
-      <c r="G4" s="5">
-        <v>40836</v>
+      <c r="G4" s="5" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1741,8 +2302,8 @@
       <c r="F5" s="4">
         <v>8053518883</v>
       </c>
-      <c r="G5" s="5">
-        <v>41216</v>
+      <c r="G5" s="5" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1764,8 +2325,8 @@
       <c r="F6" s="4">
         <v>6962657394</v>
       </c>
-      <c r="G6" s="5">
-        <v>40818</v>
+      <c r="G6" s="5" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1787,8 +2348,8 @@
       <c r="F7" s="4">
         <v>5837305561</v>
       </c>
-      <c r="G7" s="5">
-        <v>40941</v>
+      <c r="G7" s="5" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1810,8 +2371,8 @@
       <c r="F8" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="5">
-        <v>41007</v>
+      <c r="G8" s="5" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1833,8 +2394,8 @@
       <c r="F9" s="4">
         <v>2731305971</v>
       </c>
-      <c r="G9" s="5">
-        <v>40889</v>
+      <c r="G9" s="5" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1856,8 +2417,8 @@
       <c r="F10" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="5">
-        <v>41069</v>
+      <c r="G10" s="5" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1879,8 +2440,8 @@
       <c r="F11" s="4">
         <v>4850516963</v>
       </c>
-      <c r="G11" s="5">
-        <v>40727</v>
+      <c r="G11" s="5" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1902,8 +2463,8 @@
       <c r="F12" s="4">
         <v>7546417212</v>
       </c>
-      <c r="G12" s="5">
-        <v>41478</v>
+      <c r="G12" s="5" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1925,8 +2486,8 @@
       <c r="F13" s="4">
         <v>7953547463</v>
       </c>
-      <c r="G13" s="5">
-        <v>41073</v>
+      <c r="G13" s="5" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1948,8 +2509,8 @@
       <c r="F14" s="4">
         <v>1233306911</v>
       </c>
-      <c r="G14" s="5">
-        <v>41376</v>
+      <c r="G14" s="5" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1971,8 +2532,8 @@
       <c r="F15" s="4">
         <v>1946447702</v>
       </c>
-      <c r="G15" s="5">
-        <v>41197</v>
+      <c r="G15" s="5" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1994,8 +2555,8 @@
       <c r="F16" s="4">
         <v>7632306101</v>
       </c>
-      <c r="G16" s="5">
-        <v>41586</v>
+      <c r="G16" s="5" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2017,8 +2578,8 @@
       <c r="F17" s="4">
         <v>5145466732</v>
       </c>
-      <c r="G17" s="5">
-        <v>41157</v>
+      <c r="G17" s="5" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2040,8 +2601,8 @@
       <c r="F18" s="4">
         <v>4458507343</v>
       </c>
-      <c r="G18" s="5">
-        <v>41098</v>
+      <c r="G18" s="5" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2063,8 +2624,8 @@
       <c r="F19" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="5">
-        <v>41023</v>
+      <c r="G19" s="5" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2086,8 +2647,8 @@
       <c r="F20" s="4">
         <v>9251566283</v>
       </c>
-      <c r="G20" s="5">
-        <v>40798</v>
+      <c r="G20" s="5" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2109,8 +2670,8 @@
       <c r="F21" s="4">
         <v>6022295800</v>
       </c>
-      <c r="G21" s="5">
-        <v>41508</v>
+      <c r="G21" s="5" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2132,8 +2693,8 @@
       <c r="F22" s="4">
         <v>2143456062</v>
       </c>
-      <c r="G22" s="5">
-        <v>41012</v>
+      <c r="G22" s="5" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2155,8 +2716,8 @@
       <c r="F23" s="4">
         <v>6260688354</v>
       </c>
-      <c r="G23" s="5">
-        <v>41209</v>
+      <c r="G23" s="5" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2178,8 +2739,8 @@
       <c r="F24" s="4">
         <v>5038395901</v>
       </c>
-      <c r="G24" s="5">
-        <v>41135</v>
+      <c r="G24" s="5" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2201,8 +2762,8 @@
       <c r="F25" s="4">
         <v>4038336791</v>
       </c>
-      <c r="G25" s="5">
-        <v>41420</v>
+      <c r="G25" s="5" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2224,8 +2785,8 @@
       <c r="F26" s="4">
         <v>1036376431</v>
       </c>
-      <c r="G26" s="5">
-        <v>41594</v>
+      <c r="G26" s="5" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2247,8 +2808,8 @@
       <c r="F27" s="4">
         <v>8252527093</v>
       </c>
-      <c r="G27" s="5">
-        <v>40881</v>
+      <c r="G27" s="5" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2270,8 +2831,8 @@
       <c r="F28" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="5">
-        <v>41230</v>
+      <c r="G28" s="5" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2293,8 +2854,8 @@
       <c r="F29" s="4">
         <v>2147417562</v>
       </c>
-      <c r="G29" s="5">
-        <v>41327</v>
+      <c r="G29" s="5" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2316,8 +2877,8 @@
       <c r="F30" s="4">
         <v>2023243100</v>
       </c>
-      <c r="G30" s="5">
-        <v>40840</v>
+      <c r="G30" s="5" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2339,8 +2900,8 @@
       <c r="F31" s="4">
         <v>6864639084</v>
       </c>
-      <c r="G31" s="5">
-        <v>41525</v>
+      <c r="G31" s="5" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2362,8 +2923,8 @@
       <c r="F32" s="4">
         <v>1861648414</v>
       </c>
-      <c r="G32" s="5">
-        <v>41084</v>
+      <c r="G32" s="5" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2385,8 +2946,8 @@
       <c r="F33" s="4">
         <v>9338335941</v>
       </c>
-      <c r="G33" s="5">
-        <v>41001</v>
+      <c r="G33" s="5" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2445,8 +3006,8 @@
       <c r="F36" s="4">
         <v>9648496002</v>
       </c>
-      <c r="G36" s="5">
-        <v>40928</v>
+      <c r="G36" s="5" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2468,8 +3029,8 @@
       <c r="F37" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G37" s="5">
-        <v>40951</v>
+      <c r="G37" s="5" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2491,8 +3052,8 @@
       <c r="F38" s="4">
         <v>3123244770</v>
       </c>
-      <c r="G38" s="5">
-        <v>41036</v>
+      <c r="G38" s="5" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2514,8 +3075,8 @@
       <c r="F39" s="4">
         <v>9125224850</v>
       </c>
-      <c r="G39" s="5">
-        <v>40926</v>
+      <c r="G39" s="5" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2537,8 +3098,8 @@
       <c r="F40" s="4">
         <v>3462628084</v>
       </c>
-      <c r="G40" s="5">
-        <v>41091</v>
+      <c r="G40" s="5" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2560,8 +3121,8 @@
       <c r="F41" s="4">
         <v>2669677874</v>
       </c>
-      <c r="G41" s="5">
-        <v>40550</v>
+      <c r="G41" s="5" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2583,8 +3144,8 @@
       <c r="F42" s="4">
         <v>4126283880</v>
       </c>
-      <c r="G42" s="5">
-        <v>40651</v>
+      <c r="G42" s="5" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2606,8 +3167,8 @@
       <c r="F43" s="4">
         <v>3737385881</v>
       </c>
-      <c r="G43" s="5">
-        <v>40938</v>
+      <c r="G43" s="5" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2629,8 +3190,8 @@
       <c r="F44" s="4">
         <v>7848435242</v>
       </c>
-      <c r="G44" s="5">
-        <v>40660</v>
+      <c r="G44" s="5" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2652,8 +3213,8 @@
       <c r="F45" s="4">
         <v>8030375561</v>
       </c>
-      <c r="G45" s="5">
-        <v>40876</v>
+      <c r="G45" s="5" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2675,8 +3236,8 @@
       <c r="F46" s="4">
         <v>8135305021</v>
       </c>
-      <c r="G46" s="5">
-        <v>40981</v>
+      <c r="G46" s="5" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2698,8 +3259,8 @@
       <c r="F47" s="4">
         <v>3547426462</v>
       </c>
-      <c r="G47" s="5">
-        <v>40998</v>
+      <c r="G47" s="5" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2721,8 +3282,8 @@
       <c r="F48" s="4">
         <v>4246435522</v>
       </c>
-      <c r="G48" s="5">
-        <v>40730</v>
+      <c r="G48" s="5" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2744,8 +3305,8 @@
       <c r="F49" s="4">
         <v>4221264020</v>
       </c>
-      <c r="G49" s="5">
-        <v>40833</v>
+      <c r="G49" s="5" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2767,8 +3328,8 @@
       <c r="F50" s="4">
         <v>8459576463</v>
       </c>
-      <c r="G50" s="5">
-        <v>40544</v>
+      <c r="G50" s="5" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2790,8 +3351,8 @@
       <c r="F51" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G51" s="5">
-        <v>40562</v>
+      <c r="G51" s="5" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2813,8 +3374,8 @@
       <c r="F52" s="4">
         <v>7333345771</v>
       </c>
-      <c r="G52" s="5">
-        <v>41107</v>
+      <c r="G52" s="5" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2836,8 +3397,8 @@
       <c r="F53" s="4">
         <v>4758596643</v>
       </c>
-      <c r="G53" s="5">
-        <v>40613</v>
+      <c r="G53" s="5" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2859,8 +3420,8 @@
       <c r="F54" s="4">
         <v>5159586143</v>
       </c>
-      <c r="G54" s="5">
-        <v>40714</v>
+      <c r="G54" s="5" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2882,8 +3443,8 @@
       <c r="F55" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G55" s="5">
-        <v>40862</v>
+      <c r="G55" s="5" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2905,8 +3466,8 @@
       <c r="F56" s="4">
         <v>2652546863</v>
       </c>
-      <c r="G56" s="5">
-        <v>40807</v>
+      <c r="G56" s="5" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2928,8 +3489,8 @@
       <c r="F57" s="4">
         <v>3260658594</v>
       </c>
-      <c r="G57" s="5">
-        <v>41118</v>
+      <c r="G57" s="5" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2951,8 +3512,8 @@
       <c r="F58" s="4">
         <v>4450537023</v>
       </c>
-      <c r="G58" s="5">
-        <v>40891</v>
+      <c r="G58" s="5" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2974,8 +3535,8 @@
       <c r="F59" s="4">
         <v>3952507723</v>
       </c>
-      <c r="G59" s="5">
-        <v>40900</v>
+      <c r="G59" s="5" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2997,8 +3558,8 @@
       <c r="F60" s="4">
         <v>2422264830</v>
       </c>
-      <c r="G60" s="5">
-        <v>40971</v>
+      <c r="G60" s="5" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3020,8 +3581,8 @@
       <c r="F61" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G61" s="5">
-        <v>40962</v>
+      <c r="G61" s="5" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3043,8 +3604,8 @@
       <c r="F62" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G62" s="5">
-        <v>40646</v>
+      <c r="G62" s="5" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3066,8 +3627,8 @@
       <c r="F63" s="4">
         <v>5850586523</v>
       </c>
-      <c r="G63" s="5">
-        <v>40786</v>
+      <c r="G63" s="5" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3089,8 +3650,8 @@
       <c r="F64" s="4">
         <v>1161647704</v>
       </c>
-      <c r="G64" s="5">
-        <v>40813</v>
+      <c r="G64" s="5" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3112,8 +3673,8 @@
       <c r="F65" s="4">
         <v>7040475672</v>
       </c>
-      <c r="G65" s="5">
-        <v>40871</v>
+      <c r="G65" s="5" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3135,8 +3696,8 @@
       <c r="F66" s="4">
         <v>7707227800</v>
       </c>
-      <c r="G66" s="5">
-        <v>40767</v>
+      <c r="G66" s="5" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3158,8 +3719,8 @@
       <c r="F67" s="4">
         <v>5849601764</v>
       </c>
-      <c r="G67" s="5">
-        <v>41296</v>
+      <c r="G67" s="5" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3181,8 +3742,8 @@
       <c r="F68" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G68" s="5">
-        <v>41345</v>
+      <c r="G68" s="5" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3204,8 +3765,8 @@
       <c r="F69" s="4">
         <v>2430396241</v>
       </c>
-      <c r="G69" s="5">
-        <v>41235</v>
+      <c r="G69" s="5" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3227,8 +3788,8 @@
       <c r="F70" s="4">
         <v>6247496212</v>
       </c>
-      <c r="G70" s="5">
-        <v>40964</v>
+      <c r="G70" s="5" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3250,8 +3811,8 @@
       <c r="F71" s="4">
         <v>4024265420</v>
       </c>
-      <c r="G71" s="5">
-        <v>41506</v>
+      <c r="G71" s="5" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3273,8 +3834,8 @@
       <c r="F72" s="4">
         <v>9247457222</v>
       </c>
-      <c r="G72" s="5">
-        <v>45350</v>
+      <c r="G72" s="5" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3296,8 +3857,8 @@
       <c r="F73" s="4">
         <v>8339314731</v>
       </c>
-      <c r="G73" s="5">
-        <v>40876</v>
+      <c r="G73" s="5" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3319,8 +3880,8 @@
       <c r="F74" s="4">
         <v>1155528903</v>
       </c>
-      <c r="G74" s="5">
-        <v>40812</v>
+      <c r="G74" s="5" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3342,8 +3903,8 @@
       <c r="F75" s="4">
         <v>6968699664</v>
       </c>
-      <c r="G75" s="5">
-        <v>41242</v>
+      <c r="G75" s="5" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3365,8 +3926,8 @@
       <c r="F76" s="4">
         <v>3034395871</v>
       </c>
-      <c r="G76" s="5">
-        <v>41121</v>
+      <c r="G76" s="5" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3388,8 +3949,8 @@
       <c r="F77" s="4">
         <v>8930385651</v>
       </c>
-      <c r="G77" s="5">
-        <v>41004</v>
+      <c r="G77" s="5" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3411,8 +3972,8 @@
       <c r="F78" s="4">
         <v>1756579933</v>
       </c>
-      <c r="G78" s="5">
-        <v>41633</v>
+      <c r="G78" s="5" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3434,8 +3995,8 @@
       <c r="F79" s="4">
         <v>4456567713</v>
       </c>
-      <c r="G79" s="5">
-        <v>41173</v>
+      <c r="G79" s="5" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3457,8 +4018,8 @@
       <c r="F80" s="4">
         <v>5461687154</v>
       </c>
-      <c r="G80" s="5">
-        <v>40827</v>
+      <c r="G80" s="5" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3480,8 +4041,8 @@
       <c r="F81" s="4">
         <v>7361630694</v>
       </c>
-      <c r="G81" s="5">
-        <v>41563</v>
+      <c r="G81" s="5" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3503,8 +4064,8 @@
       <c r="F82" s="4">
         <v>2464648554</v>
       </c>
-      <c r="G82" s="5">
-        <v>40870</v>
+      <c r="G82" s="5" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3526,8 +4087,8 @@
       <c r="F83" s="4">
         <v>9062647044</v>
       </c>
-      <c r="G83" s="5">
-        <v>40811</v>
+      <c r="G83" s="5" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3549,8 +4110,8 @@
       <c r="F84" s="4">
         <v>8758537113</v>
       </c>
-      <c r="G84" s="5">
-        <v>40957</v>
+      <c r="G84" s="5" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3572,8 +4133,8 @@
       <c r="F85" s="4">
         <v>7943456992</v>
       </c>
-      <c r="G85" s="5">
-        <v>40932</v>
+      <c r="G85" s="5" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3595,8 +4156,8 @@
       <c r="F86" s="4">
         <v>1741406352</v>
       </c>
-      <c r="G86" s="5">
-        <v>41195</v>
+      <c r="G86" s="5" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3618,8 +4179,8 @@
       <c r="F87" s="4">
         <v>6427275830</v>
       </c>
-      <c r="G87" s="5">
-        <v>41544</v>
+      <c r="G87" s="5" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3641,8 +4202,8 @@
       <c r="F88" s="4">
         <v>4643487562</v>
       </c>
-      <c r="G88" s="5">
-        <v>45789</v>
+      <c r="G88" s="5" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3664,8 +4225,8 @@
       <c r="F89" s="4">
         <v>8825243000</v>
       </c>
-      <c r="G89" s="5">
-        <v>40542</v>
+      <c r="G89" s="5" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3687,8 +4248,8 @@
       <c r="F90" s="4">
         <v>6521295860</v>
       </c>
-      <c r="G90" s="5">
-        <v>41340</v>
+      <c r="G90" s="5" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3710,8 +4271,8 @@
       <c r="F91" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="G91" s="5">
-        <v>40718</v>
+      <c r="G91" s="5" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3733,8 +4294,8 @@
       <c r="F92" s="4">
         <v>4749406432</v>
       </c>
-      <c r="G92" s="5">
-        <v>41095</v>
+      <c r="G92" s="5" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3756,8 +4317,8 @@
       <c r="F93" s="4">
         <v>1841477822</v>
       </c>
-      <c r="G93" s="5">
-        <v>41338</v>
+      <c r="G93" s="5" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3779,8 +4340,8 @@
       <c r="F94" s="4">
         <v>1922265930</v>
       </c>
-      <c r="G94" s="5">
-        <v>41353</v>
+      <c r="G94" s="5" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3802,8 +4363,8 @@
       <c r="F95" s="4">
         <v>4926214410</v>
       </c>
-      <c r="G95" s="5">
-        <v>41043</v>
+      <c r="G95" s="5" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3825,8 +4386,8 @@
       <c r="F96" s="4">
         <v>6565688644</v>
       </c>
-      <c r="G96" s="5">
-        <v>40882</v>
+      <c r="G96" s="5" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3848,8 +4409,8 @@
       <c r="F97" s="4">
         <v>4956536743</v>
       </c>
-      <c r="G97" s="5">
-        <v>40807</v>
+      <c r="G97" s="5" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3871,8 +4432,8 @@
       <c r="F98" s="4">
         <v>9958536363</v>
       </c>
-      <c r="G98" s="5">
-        <v>40782</v>
+      <c r="G98" s="5" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3928,8 +4489,8 @@
       <c r="F101" s="4">
         <v>8745405112</v>
       </c>
-      <c r="G101" s="5">
-        <v>40585</v>
+      <c r="G101" s="5" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3951,8 +4512,8 @@
       <c r="F102" s="4">
         <v>5760668514</v>
       </c>
-      <c r="G102" s="5">
-        <v>41109</v>
+      <c r="G102" s="5" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3974,8 +4535,8 @@
       <c r="F103" s="4">
         <v>5960687254</v>
       </c>
-      <c r="G103" s="5">
-        <v>40644</v>
+      <c r="G103" s="5" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3997,8 +4558,8 @@
       <c r="F104" s="4">
         <v>3243435742</v>
       </c>
-      <c r="G104" s="5">
-        <v>40498</v>
+      <c r="G104" s="5" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4020,8 +4581,8 @@
       <c r="F105" s="4">
         <v>1528256970</v>
       </c>
-      <c r="G105" s="5">
-        <v>41559</v>
+      <c r="G105" s="5" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4043,8 +4604,8 @@
       <c r="F106" s="4">
         <v>4723264140</v>
       </c>
-      <c r="G106" s="5">
-        <v>41050</v>
+      <c r="G106" s="5" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4066,8 +4627,8 @@
       <c r="F107" s="4">
         <v>6139334841</v>
       </c>
-      <c r="G107" s="5">
-        <v>40806</v>
+      <c r="G107" s="5" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4089,8 +4650,8 @@
       <c r="F108" s="4">
         <v>2760679124</v>
       </c>
-      <c r="G108" s="5">
-        <v>41277</v>
+      <c r="G108" s="5" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4112,8 +4673,8 @@
       <c r="F109" s="4">
         <v>2544487622</v>
       </c>
-      <c r="G109" s="5">
-        <v>41401</v>
+      <c r="G109" s="5" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4135,8 +4696,8 @@
       <c r="F110" s="4">
         <v>9850547983</v>
       </c>
-      <c r="G110" s="5">
-        <v>40973</v>
+      <c r="G110" s="5" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4158,8 +4719,8 @@
       <c r="F111" s="4">
         <v>5463689134</v>
       </c>
-      <c r="G111" s="5">
-        <v>41424</v>
+      <c r="G111" s="5" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4181,8 +4742,8 @@
       <c r="F112" s="4">
         <v>2545446382</v>
       </c>
-      <c r="G112" s="5">
-        <v>41140</v>
+      <c r="G112" s="5" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4204,8 +4765,8 @@
       <c r="F113" s="4">
         <v>6043437232</v>
       </c>
-      <c r="G113" s="5">
-        <v>41472</v>
+      <c r="G113" s="5" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4227,8 +4788,8 @@
       <c r="F114" s="4">
         <v>7233345371</v>
       </c>
-      <c r="G114" s="5">
-        <v>41203</v>
+      <c r="G114" s="5" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4250,8 +4811,8 @@
       <c r="F115" s="4">
         <v>9144456442</v>
       </c>
-      <c r="G115" s="5">
-        <v>41044</v>
+      <c r="G115" s="5" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4273,8 +4834,8 @@
       <c r="F116" s="4">
         <v>7736384301</v>
       </c>
-      <c r="G116" s="5">
-        <v>40542</v>
+      <c r="G116" s="5" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4296,8 +4857,8 @@
       <c r="F117" s="4">
         <v>5037366531</v>
       </c>
-      <c r="G117" s="5">
-        <v>41355</v>
+      <c r="G117" s="5" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4319,8 +4880,8 @@
       <c r="F118" s="4">
         <v>4228273860</v>
       </c>
-      <c r="G118" s="5">
-        <v>40702</v>
+      <c r="G118" s="5" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4342,8 +4903,8 @@
       <c r="F119" s="4">
         <v>6157558813</v>
       </c>
-      <c r="G119" s="5">
-        <v>41245</v>
+      <c r="G119" s="5" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4365,8 +4926,8 @@
       <c r="F120" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G120" s="5">
-        <v>40985</v>
+      <c r="G120" s="5" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4388,8 +4949,8 @@
       <c r="F121" s="4">
         <v>4136376581</v>
       </c>
-      <c r="G121" s="5">
-        <v>41478</v>
+      <c r="G121" s="5" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4411,8 +4972,8 @@
       <c r="F122" s="4">
         <v>8338325411</v>
       </c>
-      <c r="G122" s="5">
-        <v>45808</v>
+      <c r="G122" s="5" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4434,8 +4995,8 @@
       <c r="F123" s="4">
         <v>5943406142</v>
       </c>
-      <c r="G123" s="5">
-        <v>40970</v>
+      <c r="G123" s="5" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4457,8 +5018,8 @@
       <c r="F124" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G124" s="5">
-        <v>41399</v>
+      <c r="G124" s="5" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4480,8 +5041,8 @@
       <c r="F125" s="4">
         <v>4231394911</v>
       </c>
-      <c r="G125" s="5">
-        <v>40828</v>
+      <c r="G125" s="5" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4503,8 +5064,8 @@
       <c r="F126" s="4">
         <v>5663648974</v>
       </c>
-      <c r="G126" s="5">
-        <v>41145</v>
+      <c r="G126" s="5" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4526,8 +5087,8 @@
       <c r="F127" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="G127" s="5">
-        <v>41249</v>
+      <c r="G127" s="5" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4549,8 +5110,8 @@
       <c r="F128" s="4">
         <v>6329253070</v>
       </c>
-      <c r="G128" s="5">
-        <v>40693</v>
+      <c r="G128" s="5" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4572,8 +5133,8 @@
       <c r="F129" s="4">
         <v>5052508923</v>
       </c>
-      <c r="G129" s="5">
-        <v>41326</v>
+      <c r="G129" s="5" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4595,8 +5156,8 @@
       <c r="F130" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G130" s="5">
-        <v>40697</v>
+      <c r="G130" s="5" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4618,8 +5179,8 @@
       <c r="F131" s="4">
         <v>8541495272</v>
       </c>
-      <c r="G131" s="5">
-        <v>40837</v>
+      <c r="G131" s="5" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4641,8 +5202,8 @@
       <c r="F132" s="4">
         <v>1430336851</v>
       </c>
-      <c r="G132" s="5">
-        <v>41412</v>
+      <c r="G132" s="5" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4678,8 +5239,8 @@
       <c r="F134" s="4">
         <v>5850588163</v>
       </c>
-      <c r="G134" s="5">
-        <v>41553</v>
+      <c r="G134" s="5" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4701,8 +5262,8 @@
       <c r="F135" s="4">
         <v>3225266810</v>
       </c>
-      <c r="G135" s="5">
-        <v>41615</v>
+      <c r="G135" s="5" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4724,8 +5285,8 @@
       <c r="F136" s="4">
         <v>8551508773</v>
       </c>
-      <c r="G136" s="5">
-        <v>41199</v>
+      <c r="G136" s="5" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4747,8 +5308,8 @@
       <c r="F137" s="4">
         <v>4054517363</v>
       </c>
-      <c r="G137" s="5">
-        <v>40921</v>
+      <c r="G137" s="5" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4770,8 +5331,8 @@
       <c r="F138" s="4">
         <v>2926294090</v>
       </c>
-      <c r="G138" s="5">
-        <v>40944</v>
+      <c r="G138" s="5" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4793,8 +5354,8 @@
       <c r="F139" s="4">
         <v>282285690</v>
       </c>
-      <c r="G139" s="5">
-        <v>41347</v>
+      <c r="G139" s="5" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4816,8 +5377,8 @@
       <c r="F140" s="4">
         <v>9235375261</v>
       </c>
-      <c r="G140" s="5">
-        <v>41156</v>
+      <c r="G140" s="5" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4839,8 +5400,8 @@
       <c r="F141" s="4">
         <v>8444486532</v>
       </c>
-      <c r="G141" s="5">
-        <v>41200</v>
+      <c r="G141" s="5" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4862,8 +5423,8 @@
       <c r="F142" s="4">
         <v>4238385361</v>
       </c>
-      <c r="G142" s="5">
-        <v>40928</v>
+      <c r="G142" s="5" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4885,8 +5446,8 @@
       <c r="F143" s="4">
         <v>4824234380</v>
       </c>
-      <c r="G143" s="5">
-        <v>41113</v>
+      <c r="G143" s="5" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -4908,8 +5469,8 @@
       <c r="F144" s="4">
         <v>4541447262</v>
       </c>
-      <c r="G144" s="5">
-        <v>41369</v>
+      <c r="G144" s="5" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4931,8 +5492,8 @@
       <c r="F145" s="4">
         <v>9630325401</v>
       </c>
-      <c r="G145" s="5">
-        <v>41205</v>
+      <c r="G145" s="5" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -4954,8 +5515,8 @@
       <c r="F146" s="4">
         <v>2743437522</v>
       </c>
-      <c r="G146" s="5">
-        <v>41292</v>
+      <c r="G146" s="5" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4977,8 +5538,8 @@
       <c r="F147" s="4">
         <v>7537356111</v>
       </c>
-      <c r="G147" s="5">
-        <v>41078</v>
+      <c r="G147" s="5" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5000,8 +5561,8 @@
       <c r="F148" s="4">
         <v>2525245220</v>
       </c>
-      <c r="G148" s="5">
-        <v>41593</v>
+      <c r="G148" s="5" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5023,8 +5584,8 @@
       <c r="F149" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="G149" s="5">
-        <v>41143</v>
+      <c r="G149" s="5" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5046,8 +5607,8 @@
       <c r="F150" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G150" s="5">
-        <v>40710</v>
+      <c r="G150" s="5" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5069,8 +5630,8 @@
       <c r="F151" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="G151" s="5">
-        <v>41352</v>
+      <c r="G151" s="5" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5092,8 +5653,8 @@
       <c r="F152" s="4">
         <v>5068618374</v>
       </c>
-      <c r="G152" s="5">
-        <v>40892</v>
+      <c r="G152" s="5" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5115,8 +5676,8 @@
       <c r="F153" s="4">
         <v>5943476352</v>
       </c>
-      <c r="G153" s="5">
-        <v>40910</v>
+      <c r="G153" s="5" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5138,8 +5699,8 @@
       <c r="F154" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G154" s="5">
-        <v>41519</v>
+      <c r="G154" s="5" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5161,8 +5722,8 @@
       <c r="F155" s="4">
         <v>6429283170</v>
       </c>
-      <c r="G155" s="5">
-        <v>40806</v>
+      <c r="G155" s="5" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5184,8 +5745,8 @@
       <c r="F156" s="4">
         <v>3564628784</v>
       </c>
-      <c r="G156" s="5">
-        <v>41023</v>
+      <c r="G156" s="5" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5207,8 +5768,8 @@
       <c r="F157" s="4">
         <v>3550517223</v>
       </c>
-      <c r="G157" s="5">
-        <v>41018</v>
+      <c r="G157" s="5" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5230,8 +5791,8 @@
       <c r="F158" s="4">
         <v>8423244060</v>
       </c>
-      <c r="G158" s="5">
-        <v>40912</v>
+      <c r="G158" s="5" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5253,8 +5814,8 @@
       <c r="F159" s="4">
         <v>3665619364</v>
       </c>
-      <c r="G159" s="5">
-        <v>41257</v>
+      <c r="G159" s="5" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5276,8 +5837,8 @@
       <c r="F160" s="4">
         <v>2233305901</v>
       </c>
-      <c r="G160" s="5">
-        <v>41226</v>
+      <c r="G160" s="5" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5299,8 +5860,8 @@
       <c r="F161" s="4">
         <v>4557576783</v>
       </c>
-      <c r="G161" s="5">
-        <v>40808</v>
+      <c r="G161" s="5" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5322,8 +5883,8 @@
       <c r="F162" s="4">
         <v>4349487262</v>
       </c>
-      <c r="G162" s="5">
-        <v>41247</v>
+      <c r="G162" s="5" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5345,8 +5906,8 @@
       <c r="F163" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G163" s="5">
-        <v>40911</v>
+      <c r="G163" s="5" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5368,8 +5929,8 @@
       <c r="F164" s="4">
         <v>6960628204</v>
       </c>
-      <c r="G164" s="5">
-        <v>40944</v>
+      <c r="G164" s="5" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5391,8 +5952,8 @@
       <c r="F165" s="4">
         <v>2330326041</v>
       </c>
-      <c r="G165" s="5">
-        <v>41331</v>
+      <c r="G165" s="5" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5414,8 +5975,8 @@
       <c r="F166" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="G166" s="5">
-        <v>40943</v>
+      <c r="G166" s="5" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5437,8 +5998,8 @@
       <c r="F167" s="4">
         <v>7624255260</v>
       </c>
-      <c r="G167" s="5">
-        <v>41233</v>
+      <c r="G167" s="5" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5460,8 +6021,8 @@
       <c r="F168" s="4">
         <v>7956598113</v>
       </c>
-      <c r="G168" s="5">
-        <v>41283</v>
+      <c r="G168" s="5" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5483,8 +6044,8 @@
       <c r="F169" s="4">
         <v>6345447772</v>
       </c>
-      <c r="G169" s="5">
-        <v>41523</v>
+      <c r="G169" s="5" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5506,8 +6067,8 @@
       <c r="F170" s="4">
         <v>5657548473</v>
       </c>
-      <c r="G170" s="5">
-        <v>41341</v>
+      <c r="G170" s="5" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5529,8 +6090,8 @@
       <c r="F171" s="4">
         <v>4851517633</v>
       </c>
-      <c r="G171" s="5">
-        <v>40956</v>
+      <c r="G171" s="5" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5552,8 +6113,8 @@
       <c r="F172" s="4">
         <v>9135365911</v>
       </c>
-      <c r="G172" s="5">
-        <v>40887</v>
+      <c r="G172" s="5" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5575,8 +6136,8 @@
       <c r="F173" s="4">
         <v>9147456822</v>
       </c>
-      <c r="G173" s="5">
-        <v>40920</v>
+      <c r="G173" s="5" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -5598,8 +6159,8 @@
       <c r="F174" s="4">
         <v>9356577533</v>
       </c>
-      <c r="G174" s="5">
-        <v>41073</v>
+      <c r="G174" s="5" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -5621,8 +6182,8 @@
       <c r="F175" s="4">
         <v>7335327401</v>
       </c>
-      <c r="G175" s="5">
-        <v>41581</v>
+      <c r="G175" s="5" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -5644,8 +6205,8 @@
       <c r="F176" s="4">
         <v>7967668004</v>
       </c>
-      <c r="G176" s="5">
-        <v>41064</v>
+      <c r="G176" s="5" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -5667,8 +6228,8 @@
       <c r="F177" s="4">
         <v>2525275600</v>
       </c>
-      <c r="G177" s="5">
-        <v>41322</v>
+      <c r="G177" s="5" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -5690,8 +6251,8 @@
       <c r="F178" s="4">
         <v>8453557083</v>
       </c>
-      <c r="G178" s="5">
-        <v>41056</v>
+      <c r="G178" s="5" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -5713,8 +6274,8 @@
       <c r="F179" s="4">
         <v>5453547933</v>
       </c>
-      <c r="G179" s="5">
-        <v>41000</v>
+      <c r="G179" s="5" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -5736,8 +6297,8 @@
       <c r="F180" s="4">
         <v>9239375721</v>
       </c>
-      <c r="G180" s="5">
-        <v>41132</v>
+      <c r="G180" s="5" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -5759,8 +6320,8 @@
       <c r="F181" s="4">
         <v>4568638094</v>
       </c>
-      <c r="G181" s="5">
-        <v>41133</v>
+      <c r="G181" s="5" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -5782,8 +6343,8 @@
       <c r="F182" s="4">
         <v>7869628304</v>
       </c>
-      <c r="G182" s="5">
-        <v>40843</v>
+      <c r="G182" s="5" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -5805,8 +6366,8 @@
       <c r="F183" s="4">
         <v>3622264120</v>
       </c>
-      <c r="G183" s="5">
-        <v>40843</v>
+      <c r="G183" s="5" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -5828,8 +6389,8 @@
       <c r="F184" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="G184" s="5">
-        <v>41435</v>
+      <c r="G184" s="5" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5851,8 +6412,8 @@
       <c r="F185" s="4">
         <v>6630345001</v>
       </c>
-      <c r="G185" s="5">
-        <v>41009</v>
+      <c r="G185" s="5" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -5874,8 +6435,8 @@
       <c r="F186" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="G186" s="5">
-        <v>41180</v>
+      <c r="G186" s="5" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5897,8 +6458,8 @@
       <c r="F187" s="4">
         <v>5665608494</v>
       </c>
-      <c r="G187" s="5">
-        <v>40933</v>
+      <c r="G187" s="5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5920,8 +6481,8 @@
       <c r="F188" s="4">
         <v>3719</v>
       </c>
-      <c r="G188" s="5">
-        <v>41060</v>
+      <c r="G188" s="5" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5943,8 +6504,8 @@
       <c r="F189" s="4">
         <v>5820234360</v>
       </c>
-      <c r="G189" s="5">
-        <v>41126</v>
+      <c r="G189" s="5" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -5966,8 +6527,8 @@
       <c r="F190" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="G190" s="5">
-        <v>41211</v>
+      <c r="G190" s="5" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -5989,8 +6550,8 @@
       <c r="F191" s="4">
         <v>5222215730</v>
       </c>
-      <c r="G191" s="5">
-        <v>41319</v>
+      <c r="G191" s="5" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6012,8 +6573,8 @@
       <c r="F192" s="4">
         <v>6460679844</v>
       </c>
-      <c r="G192" s="5">
-        <v>41368</v>
+      <c r="G192" s="5" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -6035,8 +6596,8 @@
       <c r="F193" s="4">
         <v>7934387351</v>
       </c>
-      <c r="G193" s="5">
-        <v>41580</v>
+      <c r="G193" s="5" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -6058,8 +6619,8 @@
       <c r="F194" s="4">
         <v>9566658594</v>
       </c>
-      <c r="G194" s="5">
-        <v>41183</v>
+      <c r="G194" s="5" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -6081,8 +6642,8 @@
       <c r="F195" s="4">
         <v>8764649384</v>
       </c>
-      <c r="G195" s="5">
-        <v>41584</v>
+      <c r="G195" s="5" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -6104,8 +6665,8 @@
       <c r="F196" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="G196" s="5">
-        <v>41373</v>
+      <c r="G196" s="5" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -6127,8 +6688,8 @@
       <c r="F197" s="4">
         <v>1060669024</v>
       </c>
-      <c r="G197" s="5">
-        <v>41521</v>
+      <c r="G197" s="5" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -6150,8 +6711,8 @@
       <c r="F198" s="4">
         <v>8843445182</v>
       </c>
-      <c r="G198" s="5">
-        <v>40800</v>
+      <c r="G198" s="5" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -6173,8 +6734,8 @@
       <c r="F199" s="4">
         <v>9734375451</v>
       </c>
-      <c r="G199" s="5">
-        <v>40856</v>
+      <c r="G199" s="5" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -6196,8 +6757,8 @@
       <c r="F200" s="4">
         <v>5260668514</v>
       </c>
-      <c r="G200" s="5">
-        <v>40948</v>
+      <c r="G200" s="5" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -6219,8 +6780,8 @@
       <c r="F201" s="4">
         <v>6368647854</v>
       </c>
-      <c r="G201" s="5">
-        <v>40567</v>
+      <c r="G201" s="5" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -6242,8 +6803,8 @@
       <c r="F202" s="4">
         <v>4258517263</v>
       </c>
-      <c r="G202" s="5">
-        <v>41084</v>
+      <c r="G202" s="5" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -6265,8 +6826,8 @@
       <c r="F203" s="4">
         <v>6839304491</v>
       </c>
-      <c r="G203" s="5">
-        <v>40787</v>
+      <c r="G203" s="5" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -6288,8 +6849,8 @@
       <c r="F204" s="4">
         <v>9945417992</v>
       </c>
-      <c r="G204" s="5">
-        <v>41620</v>
+      <c r="G204" s="5" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
